--- a/data/trans_orig/P39B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P39B-Edad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>28792</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>20434</v>
+        <v>19749</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>39823</v>
+        <v>41171</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.141181963943832</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1002003125082546</v>
+        <v>0.09684291500904085</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1952779967514024</v>
+        <v>0.2018844187298542</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -764,19 +764,19 @@
         <v>21391</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14447</v>
+        <v>13701</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>31174</v>
+        <v>31723</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08467795421253278</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0571919460450372</v>
+        <v>0.05423696098501897</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1234068438330178</v>
+        <v>0.1255801876942462</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>50</v>
@@ -785,19 +785,19 @@
         <v>50182</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>37568</v>
+        <v>37724</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>63994</v>
+        <v>63952</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1099174379565027</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08228756039448795</v>
+        <v>0.0826295969607491</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1401697127295477</v>
+        <v>0.1400782761687433</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>70482</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>57862</v>
+        <v>57446</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>84222</v>
+        <v>86172</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3456156416679078</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2837319187196796</v>
+        <v>0.281693434214751</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4129884671180463</v>
+        <v>0.4225520433769192</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>66</v>
@@ -835,19 +835,19 @@
         <v>66187</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>52542</v>
+        <v>53570</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>81905</v>
+        <v>81313</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2620086209801598</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2079945220052434</v>
+        <v>0.2120630505871651</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3242316524592688</v>
+        <v>0.3218868269360369</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>134</v>
@@ -856,19 +856,19 @@
         <v>136669</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>117165</v>
+        <v>118020</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>156442</v>
+        <v>156008</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2993546084519351</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2566340039338944</v>
+        <v>0.2585075251682334</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3426650450809685</v>
+        <v>0.3417144791230657</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>61074</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>47766</v>
+        <v>48377</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>74473</v>
+        <v>75662</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2994816603936154</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2342257469570177</v>
+        <v>0.2372223942251065</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3651872263641411</v>
+        <v>0.371014135550026</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>75</v>
@@ -906,19 +906,19 @@
         <v>78449</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>64009</v>
+        <v>63870</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>93092</v>
+        <v>93935</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.310548539100737</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2533862091751761</v>
+        <v>0.2528353765308082</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3685178767278159</v>
+        <v>0.3718526587044428</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>135</v>
@@ -927,19 +927,19 @@
         <v>139522</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>122193</v>
+        <v>119750</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>159675</v>
+        <v>160667</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3056051323132686</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2676464537014174</v>
+        <v>0.2622965020803061</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3497463882647415</v>
+        <v>0.3519192767091155</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>21027</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13439</v>
+        <v>13164</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>32704</v>
+        <v>31006</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1031083380780314</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06589992422945823</v>
+        <v>0.06454988742001871</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1603681435848334</v>
+        <v>0.1520417801247471</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>25</v>
@@ -977,19 +977,19 @@
         <v>24683</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16692</v>
+        <v>16612</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>34931</v>
+        <v>35396</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09771252157733192</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06607586334033895</v>
+        <v>0.06576218659218044</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1382769059033917</v>
+        <v>0.1401186036308223</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>45</v>
@@ -998,19 +998,19 @@
         <v>45711</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>34268</v>
+        <v>33537</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>59135</v>
+        <v>60504</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1001227509310093</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07505851135290462</v>
+        <v>0.07345879805735885</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1295270500792227</v>
+        <v>0.1325268308495371</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>22557</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>14731</v>
+        <v>13580</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>33550</v>
+        <v>32762</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1106123959166134</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07223364089025833</v>
+        <v>0.06659107335204409</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1645155102975421</v>
+        <v>0.1606512024018882</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>59</v>
@@ -1048,19 +1048,19 @@
         <v>61903</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>48188</v>
+        <v>48543</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>75120</v>
+        <v>77639</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2450523641292386</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1907563310509809</v>
+        <v>0.1921630755042859</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2973734066950797</v>
+        <v>0.3073437948651536</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>81</v>
@@ -1069,19 +1069,19 @@
         <v>84461</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>68322</v>
+        <v>67924</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>101615</v>
+        <v>102952</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1850000703472844</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1496510956314606</v>
+        <v>0.1487784785091412</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2225744784723359</v>
+        <v>0.2255015611301618</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>74763</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>59461</v>
+        <v>60489</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>90461</v>
+        <v>90165</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1485375016422804</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1181359666871595</v>
+        <v>0.1201775589835204</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1797252166948524</v>
+        <v>0.1791365852692551</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>45</v>
@@ -1194,19 +1194,19 @@
         <v>47672</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>34710</v>
+        <v>35782</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>62773</v>
+        <v>62683</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09411665701117695</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06852672848298146</v>
+        <v>0.07064332931729796</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1239308515152305</v>
+        <v>0.1237518510173625</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>120</v>
@@ -1215,19 +1215,19 @@
         <v>122435</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>103254</v>
+        <v>102129</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>144519</v>
+        <v>143330</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.121241105890469</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1022468748350987</v>
+        <v>0.1011326052989944</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1431096732342853</v>
+        <v>0.1419319776080001</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>158070</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>136771</v>
+        <v>136649</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>179354</v>
+        <v>180207</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.314049406179462</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2717319711816686</v>
+        <v>0.2714894585534534</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3563343775811216</v>
+        <v>0.3580286421735637</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>120</v>
@@ -1265,19 +1265,19 @@
         <v>129620</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>110053</v>
+        <v>111336</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>149116</v>
+        <v>149057</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2559026363452845</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2172719046851191</v>
+        <v>0.2198059370645217</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2943923362192412</v>
+        <v>0.2942757300595576</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>275</v>
@@ -1286,19 +1286,19 @@
         <v>287690</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>255496</v>
+        <v>257594</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>317829</v>
+        <v>316941</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2848841616515214</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2530044003419954</v>
+        <v>0.2550815311641491</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3147289470702002</v>
+        <v>0.313849714566959</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>142422</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>122608</v>
+        <v>123303</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>164500</v>
+        <v>165090</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.282959770949384</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2435935875568375</v>
+        <v>0.2449746136854475</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3268243257665207</v>
+        <v>0.3279963515950842</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>142</v>
@@ -1336,19 +1336,19 @@
         <v>153055</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>130119</v>
+        <v>131476</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>174319</v>
+        <v>174209</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3021694711761754</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.256889112588849</v>
+        <v>0.2595678715060222</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3441496074464621</v>
+        <v>0.3439330112407761</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>278</v>
@@ -1357,19 +1357,19 @@
         <v>295477</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>265333</v>
+        <v>266455</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>324794</v>
+        <v>329530</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2925949683304344</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2627451177556098</v>
+        <v>0.2638558029934856</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.321625542247504</v>
+        <v>0.3263162149140759</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>46292</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>33274</v>
+        <v>33437</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>62072</v>
+        <v>62616</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09197215059593448</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06610685829762687</v>
+        <v>0.06643081231868307</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.123321895076553</v>
+        <v>0.1244028579949347</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>64</v>
@@ -1407,19 +1407,19 @@
         <v>66607</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>52333</v>
+        <v>52731</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>82827</v>
+        <v>84825</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1314993498241688</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1033187314731518</v>
+        <v>0.104104505516197</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1635210527270776</v>
+        <v>0.1674664964330417</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>106</v>
@@ -1428,19 +1428,19 @@
         <v>112899</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>93573</v>
+        <v>92652</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>136283</v>
+        <v>135298</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1117981948333648</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09266021190654863</v>
+        <v>0.09174866716355889</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1349533673109352</v>
+        <v>0.1339784306310432</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>81782</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>64170</v>
+        <v>66042</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>98433</v>
+        <v>101629</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1624811706329392</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1274906106583445</v>
+        <v>0.1312095374323797</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1955638868581426</v>
+        <v>0.2019130527471985</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>102</v>
@@ -1478,19 +1478,19 @@
         <v>109566</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>92519</v>
+        <v>91682</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>130030</v>
+        <v>129844</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2163118856431943</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1826558991531228</v>
+        <v>0.1810036579774221</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2567119441857509</v>
+        <v>0.2563446442556898</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>179</v>
@@ -1499,19 +1499,19 @@
         <v>191348</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>166656</v>
+        <v>165243</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>217659</v>
+        <v>218254</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1894815692942105</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1650308047550097</v>
+        <v>0.1636314684152132</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2155361611101786</v>
+        <v>0.2161252507092697</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>58222</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>44036</v>
+        <v>44635</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>73294</v>
+        <v>74510</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1043515841113527</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07892706408946529</v>
+        <v>0.0799991516202687</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1313666812721637</v>
+        <v>0.1335459152437831</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>57</v>
@@ -1624,19 +1624,19 @@
         <v>59948</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>45480</v>
+        <v>46120</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>76546</v>
+        <v>75581</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09553313965857249</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07247775301201871</v>
+        <v>0.07349796589907794</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1219843630260973</v>
+        <v>0.120445899576517</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>112</v>
@@ -1645,19 +1645,19 @@
         <v>118169</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>99627</v>
+        <v>98555</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>141319</v>
+        <v>144513</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09968360480909845</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08404161888597717</v>
+        <v>0.0831371586362902</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1192115675523381</v>
+        <v>0.1219061354928568</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>164423</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>143134</v>
+        <v>141851</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>185913</v>
+        <v>187267</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2946982823670263</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2565411023375125</v>
+        <v>0.25424183087904</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.333213744402014</v>
+        <v>0.3356413640929307</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>146</v>
@@ -1695,19 +1695,19 @@
         <v>154616</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>131613</v>
+        <v>133723</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>176131</v>
+        <v>177123</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2463981264009469</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2097405111251654</v>
+        <v>0.213102626417435</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2806846396815387</v>
+        <v>0.2822649430992216</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>303</v>
@@ -1716,19 +1716,19 @@
         <v>319040</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>285675</v>
+        <v>288342</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>350887</v>
+        <v>351523</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2691309468179285</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2409852209546439</v>
+        <v>0.2432356260962202</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2959960877298425</v>
+        <v>0.2965326642419371</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>193286</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>171265</v>
+        <v>170432</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>220208</v>
+        <v>218549</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3464297433886672</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3069603819558152</v>
+        <v>0.3054672645246065</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3946823169276971</v>
+        <v>0.3917080906445175</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>178</v>
@@ -1766,19 +1766,19 @@
         <v>191415</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>167387</v>
+        <v>168212</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>216185</v>
+        <v>216558</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3050413736253079</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2667493561615194</v>
+        <v>0.2680646167045618</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3445146369178696</v>
+        <v>0.3451085803295236</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>360</v>
@@ -1787,19 +1787,19 @@
         <v>384702</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>352868</v>
+        <v>353869</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>416725</v>
+        <v>416590</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.32452111149288</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2976668426395233</v>
+        <v>0.2985113630146962</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3515348564070048</v>
+        <v>0.3514209302108373</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>54652</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>42100</v>
+        <v>40948</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>71427</v>
+        <v>70817</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.09795387947146811</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07545633363304628</v>
+        <v>0.07339159674257476</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1280199909523433</v>
+        <v>0.1269262642959046</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>66</v>
@@ -1837,19 +1837,19 @@
         <v>68245</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>55033</v>
+        <v>53190</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>85965</v>
+        <v>85042</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1087564691817111</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08770182682639531</v>
+        <v>0.08476438997994945</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1369954569067306</v>
+        <v>0.1355234759660822</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>117</v>
@@ -1858,19 +1858,19 @@
         <v>122898</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>103484</v>
+        <v>103445</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>147783</v>
+        <v>145711</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1036721516053093</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08729515041028105</v>
+        <v>0.08726284731503174</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1246648785963559</v>
+        <v>0.1229164106792464</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>87354</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>71036</v>
+        <v>70868</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>106684</v>
+        <v>105512</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1565665106614857</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1273196343021346</v>
+        <v>0.1270170610539198</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1912111531750441</v>
+        <v>0.1891101500567191</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>143</v>
@@ -1908,19 +1908,19 @@
         <v>153281</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>133310</v>
+        <v>131288</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>178152</v>
+        <v>178608</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2442708911334617</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2124440960638203</v>
+        <v>0.2092212084469269</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2839043302983832</v>
+        <v>0.2846307901908419</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>228</v>
@@ -1929,19 +1929,19 @@
         <v>240636</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>213289</v>
+        <v>213591</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>271764</v>
+        <v>271995</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2029921852747838</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1799229947005367</v>
+        <v>0.1801782362134696</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.229250694966467</v>
+        <v>0.2294454714154716</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>61676</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>47652</v>
+        <v>48433</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>78538</v>
+        <v>80760</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1140009401554515</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0880785356940299</v>
+        <v>0.08952161076980865</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.145168350954528</v>
+        <v>0.1492739023464652</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>42</v>
@@ -2054,19 +2054,19 @@
         <v>47520</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>34904</v>
+        <v>34341</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>61957</v>
+        <v>63225</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08828575560226767</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06484731216505693</v>
+        <v>0.06380160757262937</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1151085440789394</v>
+        <v>0.1174642996755101</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>96</v>
@@ -2075,19 +2075,19 @@
         <v>109196</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>89736</v>
+        <v>90289</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>134495</v>
+        <v>134149</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1011763070823397</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08314565808327146</v>
+        <v>0.08365789667964783</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.12461759724207</v>
+        <v>0.1242963469496195</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>140340</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>119905</v>
+        <v>118827</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>163722</v>
+        <v>162828</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2594015038887269</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2216301813439824</v>
+        <v>0.2196374468978186</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3026200446839715</v>
+        <v>0.3009663710811949</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>105</v>
@@ -2125,19 +2125,19 @@
         <v>119715</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>99677</v>
+        <v>101204</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>140279</v>
+        <v>142416</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2224155615943205</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1851881447260507</v>
+        <v>0.1880236569359871</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2606211268522833</v>
+        <v>0.2645913687038022</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>233</v>
@@ -2146,19 +2146,19 @@
         <v>260055</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>231457</v>
+        <v>230705</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>291200</v>
+        <v>287877</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2409559376977457</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2144578404384367</v>
+        <v>0.213761413649534</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2698133109115626</v>
+        <v>0.2667343892055006</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>184105</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>159732</v>
+        <v>161311</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>207443</v>
+        <v>207619</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3402948394354161</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2952446901299643</v>
+        <v>0.2981637143401282</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3834328551832607</v>
+        <v>0.3837569691713369</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>156</v>
@@ -2196,19 +2196,19 @@
         <v>177925</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>156618</v>
+        <v>153597</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>201929</v>
+        <v>201118</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3305633560653079</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2909777419082007</v>
+        <v>0.2853643165856115</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3751597164745554</v>
+        <v>0.3736514166538949</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>319</v>
@@ -2217,19 +2217,19 @@
         <v>362030</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>330030</v>
+        <v>328397</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>393479</v>
+        <v>396925</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3354415706120634</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3057910577941406</v>
+        <v>0.3042780921150222</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3645809760625626</v>
+        <v>0.367773432504694</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>57471</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>43406</v>
+        <v>43157</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>75476</v>
+        <v>72816</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1062282490053086</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08023084047226846</v>
+        <v>0.0797711611853224</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1395084191035083</v>
+        <v>0.1345920169838457</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>57</v>
@@ -2267,19 +2267,19 @@
         <v>64898</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>50860</v>
+        <v>50037</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>82901</v>
+        <v>83586</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.120572088615721</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09449108515459353</v>
+        <v>0.09296196695620204</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1540201729354711</v>
+        <v>0.1552918418315782</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>107</v>
@@ -2288,19 +2288,19 @@
         <v>122369</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>101140</v>
+        <v>100961</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>145950</v>
+        <v>148766</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.113381784282594</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09371180975320792</v>
+        <v>0.09354620959962515</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1352305330233405</v>
+        <v>0.1378404561880215</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>97423</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>79040</v>
+        <v>78465</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>119327</v>
+        <v>115930</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1800744675150969</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1460948302600724</v>
+        <v>0.1450331910862326</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2205609819296172</v>
+        <v>0.2142818587455889</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>112</v>
@@ -2338,19 +2338,19 @@
         <v>128191</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>107512</v>
+        <v>107367</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>149058</v>
+        <v>148570</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2381632381223829</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1997445675451444</v>
+        <v>0.1994738030000697</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2769321918671267</v>
+        <v>0.2760249686218695</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>200</v>
@@ -2359,19 +2359,19 @@
         <v>225614</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>200800</v>
+        <v>196440</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>253853</v>
+        <v>257020</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2090444003252571</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1860523789460097</v>
+        <v>0.1820131664681849</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2352090502124794</v>
+        <v>0.2381431785505584</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>23461</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>15288</v>
+        <v>15009</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>36196</v>
+        <v>34815</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.06070830764455231</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03955919963865034</v>
+        <v>0.03883670319268083</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.09366199435994821</v>
+        <v>0.09008824314473471</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>10</v>
@@ -2484,19 +2484,19 @@
         <v>12299</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>6318</v>
+        <v>6216</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>21315</v>
+        <v>22606</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02959689737962036</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0152040297632372</v>
+        <v>0.01495918829645248</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0512943612490816</v>
+        <v>0.05439928077832833</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>31</v>
@@ -2505,19 +2505,19 @@
         <v>35760</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>24418</v>
+        <v>24241</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>51236</v>
+        <v>50741</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04458832633679091</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03044550840184623</v>
+        <v>0.03022590821154961</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0638844757567939</v>
+        <v>0.06326696628573839</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>77005</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>61417</v>
+        <v>61061</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>94558</v>
+        <v>93969</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1992582188669307</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1589218791011061</v>
+        <v>0.1580007658152573</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2446784082704528</v>
+        <v>0.2431553832531951</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>53</v>
@@ -2555,19 +2555,19 @@
         <v>59890</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>46088</v>
+        <v>46169</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>76734</v>
+        <v>77497</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1441223631336354</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1109077540063567</v>
+        <v>0.1111040430846072</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1846559665197303</v>
+        <v>0.1864921346381783</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>122</v>
@@ -2576,19 +2576,19 @@
         <v>136895</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>116697</v>
+        <v>114863</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>161656</v>
+        <v>158301</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1706902768726723</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1455052365778984</v>
+        <v>0.1432194305566794</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2015632181724442</v>
+        <v>0.1973805147007434</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>118553</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>101834</v>
+        <v>102441</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>138794</v>
+        <v>137082</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3067682513175297</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2635055227240808</v>
+        <v>0.2650757501603021</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3591431687137284</v>
+        <v>0.3547125561623871</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>111</v>
@@ -2626,19 +2626,19 @@
         <v>121293</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>102231</v>
+        <v>102848</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>142130</v>
+        <v>141509</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2918851876503407</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2460125037169573</v>
+        <v>0.2474976809292701</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3420285119831409</v>
+        <v>0.3405344350871014</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>224</v>
@@ -2647,19 +2647,19 @@
         <v>239846</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>213952</v>
+        <v>214286</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>266659</v>
+        <v>269479</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2990567812789073</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2667699887331727</v>
+        <v>0.2671867364778812</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3324886289380178</v>
+        <v>0.3360052913254057</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>52260</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>40342</v>
+        <v>39939</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>67130</v>
+        <v>68061</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1352279475353431</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1043900957361868</v>
+        <v>0.1033466617907828</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1737048790729954</v>
+        <v>0.1761147267156576</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>70</v>
@@ -2697,19 +2697,19 @@
         <v>76172</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>60569</v>
+        <v>59169</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>92455</v>
+        <v>93844</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.183303719970121</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1457558634456729</v>
+        <v>0.1423856639846281</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2224887969429632</v>
+        <v>0.2258307570404119</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>117</v>
@@ -2718,19 +2718,19 @@
         <v>128432</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>109391</v>
+        <v>106817</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>150117</v>
+        <v>151040</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1601377972144607</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1363965771398825</v>
+        <v>0.1331870260796164</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1871758366689549</v>
+        <v>0.1883272353663156</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>115179</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>95730</v>
+        <v>97080</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>132447</v>
+        <v>133439</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2980372746356443</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2477123337329437</v>
+        <v>0.2512040403007265</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3427198392898395</v>
+        <v>0.3452859205476073</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>133</v>
@@ -2768,19 +2768,19 @@
         <v>145897</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>125637</v>
+        <v>125294</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>166538</v>
+        <v>167882</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3510918318662826</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3023384443112942</v>
+        <v>0.3015139212101184</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4007649678990289</v>
+        <v>0.403998071096941</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>238</v>
@@ -2789,19 +2789,19 @@
         <v>261075</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>236740</v>
+        <v>233978</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>290223</v>
+        <v>290574</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3255268182971687</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2951838722039187</v>
+        <v>0.291740068362992</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3618695022785857</v>
+        <v>0.3623079308989849</v>
       </c>
     </row>
     <row r="33">
@@ -2893,19 +2893,19 @@
         <v>8153</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>3128</v>
+        <v>3122</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>16820</v>
+        <v>16303</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02820724820691283</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.0108209902451909</v>
+        <v>0.01080138097298182</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.05819480491320225</v>
+        <v>0.0564061663812741</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>5</v>
@@ -2914,19 +2914,19 @@
         <v>6007</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>2088</v>
+        <v>2015</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>14670</v>
+        <v>13299</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01809811096372928</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.006292607013336928</v>
+        <v>0.00607276853119742</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.04420168683700355</v>
+        <v>0.04007135765736636</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>12</v>
@@ -2935,19 +2935,19 @@
         <v>14159</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>8111</v>
+        <v>7893</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>25880</v>
+        <v>23921</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02280383791165768</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01306351216044894</v>
+        <v>0.01271144718298234</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.04168036708266011</v>
+        <v>0.03852527954315022</v>
       </c>
     </row>
     <row r="35">
@@ -2964,19 +2964,19 @@
         <v>27566</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>18793</v>
+        <v>18820</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>39031</v>
+        <v>38854</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.09537285622393228</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.0650190096365183</v>
+        <v>0.06511364748786981</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1350413371698321</v>
+        <v>0.1344273907705564</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>29</v>
@@ -2985,19 +2985,19 @@
         <v>28051</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>19422</v>
+        <v>19811</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>39559</v>
+        <v>39131</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.08451896228830774</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.05851897949961806</v>
+        <v>0.05969078207943557</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.119194506403813</v>
+        <v>0.1179048805052253</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>56</v>
@@ -3006,19 +3006,19 @@
         <v>55617</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>42912</v>
+        <v>42860</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>69968</v>
+        <v>71644</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.08957136784519781</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.06910981846955461</v>
+        <v>0.06902716077128788</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.112684529859414</v>
+        <v>0.1153841600435232</v>
       </c>
     </row>
     <row r="36">
@@ -3035,19 +3035,19 @@
         <v>96371</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>79798</v>
+        <v>81381</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>115418</v>
+        <v>115815</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3334258490734946</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2760867359142877</v>
+        <v>0.2815632402460903</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3993253636632464</v>
+        <v>0.4006978050790644</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>104</v>
@@ -3056,19 +3056,19 @@
         <v>107051</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>90954</v>
+        <v>91328</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>124305</v>
+        <v>126551</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3225533058106784</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2740533770229315</v>
+        <v>0.2751782702701898</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3745408283419366</v>
+        <v>0.3813086233020705</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>192</v>
@@ -3077,19 +3077,19 @@
         <v>203422</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>181694</v>
+        <v>179418</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>228449</v>
+        <v>227038</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.327614392488362</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2926217381286386</v>
+        <v>0.2889559249230005</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3679212336359509</v>
+        <v>0.3656485982035644</v>
       </c>
     </row>
     <row r="37">
@@ -3106,19 +3106,19 @@
         <v>63746</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>49287</v>
+        <v>49968</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>80618</v>
+        <v>79882</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2205490910434642</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1705233831030503</v>
+        <v>0.172879144094176</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2789245682609223</v>
+        <v>0.27637715892239</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>56</v>
@@ -3127,19 +3127,19 @@
         <v>57205</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>43936</v>
+        <v>43647</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>71483</v>
+        <v>71003</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1723623394645475</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.13238377608922</v>
+        <v>0.1315109416162109</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.215384981686471</v>
+        <v>0.2139379628800334</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>111</v>
@@ -3148,19 +3148,19 @@
         <v>120951</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>100786</v>
+        <v>102759</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>142642</v>
+        <v>143529</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1947929079674073</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1623175747700118</v>
+        <v>0.1654955639497553</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2297278332136402</v>
+        <v>0.231156103420757</v>
       </c>
     </row>
     <row r="38">
@@ -3177,19 +3177,19 @@
         <v>93197</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>76844</v>
+        <v>76327</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>110332</v>
+        <v>108988</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.3224449554521961</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2658663310809616</v>
+        <v>0.2640773856670124</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3817263226471574</v>
+        <v>0.3770773097649474</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>129</v>
@@ -3198,19 +3198,19 @@
         <v>133573</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>114848</v>
+        <v>114257</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>152009</v>
+        <v>150697</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.4024672814727371</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.3460452863991791</v>
+        <v>0.3442661299423042</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.4580145292538562</v>
+        <v>0.4540620992382393</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>215</v>
@@ -3219,19 +3219,19 @@
         <v>226770</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>203362</v>
+        <v>201099</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>253479</v>
+        <v>250866</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.3652174937873752</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.3275170305517026</v>
+        <v>0.3238730410142105</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4082325956976012</v>
+        <v>0.4040238116493823</v>
       </c>
     </row>
     <row r="39">
@@ -3323,19 +3323,19 @@
         <v>3286</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>8901</v>
+        <v>9848</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01503432674538362</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.004795211799077234</v>
+        <v>0.004768118259580188</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.04072114129598388</v>
+        <v>0.04505576877853616</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>3</v>
@@ -3344,19 +3344,19 @@
         <v>3497</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1045</v>
+        <v>1049</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>9354</v>
+        <v>9366</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.009621133595565835</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.002876541161000412</v>
+        <v>0.002886063034334892</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.02573766964487065</v>
+        <v>0.0257703557932148</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>6</v>
@@ -3365,19 +3365,19 @@
         <v>6783</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>2335</v>
+        <v>2319</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>13033</v>
+        <v>13684</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.01165406375315966</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.004012180242876926</v>
+        <v>0.003984859206132168</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.02239216365805221</v>
+        <v>0.02351121520219698</v>
       </c>
     </row>
     <row r="41">
@@ -3394,7 +3394,7 @@
         <v>8634</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>4126</v>
+        <v>4225</v>
       </c>
       <c r="F41" s="5" t="n">
         <v>16485</v>
@@ -3403,10 +3403,10 @@
         <v>0.0394981605920537</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.0188782027274722</v>
+        <v>0.01932717817095202</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.07541829596362529</v>
+        <v>0.07541950144064055</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>32</v>
@@ -3415,19 +3415,19 @@
         <v>35411</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>25208</v>
+        <v>24875</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>49537</v>
+        <v>48399</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.0974299197777543</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.06935792926417003</v>
+        <v>0.06844094298618723</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1362981671267363</v>
+        <v>0.1331669625306859</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>40</v>
@@ -3436,19 +3436,19 @@
         <v>44044</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>32433</v>
+        <v>32205</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>58813</v>
+        <v>58474</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.07567358907393701</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.05572305327958709</v>
+        <v>0.05533194799196798</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1010479972743487</v>
+        <v>0.1004650838371979</v>
       </c>
     </row>
     <row r="42">
@@ -3465,19 +3465,19 @@
         <v>63153</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>50260</v>
+        <v>49670</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>77748</v>
+        <v>76941</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2889227725465101</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2299369597498846</v>
+        <v>0.2272389604668184</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3556938332079992</v>
+        <v>0.3520016060643635</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>82</v>
@@ -3486,19 +3486,19 @@
         <v>91648</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>73889</v>
+        <v>75453</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>109901</v>
+        <v>108732</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2521632186871807</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2032994812899312</v>
+        <v>0.207601371357922</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3023848722720039</v>
+        <v>0.2991670068107319</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>141</v>
@@ -3507,19 +3507,19 @@
         <v>154802</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>134340</v>
+        <v>132576</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>180071</v>
+        <v>179758</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2659683062855866</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2308121674908549</v>
+        <v>0.2277820088660477</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3093833691717825</v>
+        <v>0.3088469429623841</v>
       </c>
     </row>
     <row r="43">
@@ -3536,19 +3536,19 @@
         <v>43582</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>32262</v>
+        <v>31899</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>55371</v>
+        <v>56448</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1993864134400514</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.147595884434435</v>
+        <v>0.1459354875682773</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.253318274930992</v>
+        <v>0.2582441154034003</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>70</v>
@@ -3557,19 +3557,19 @@
         <v>79029</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>62942</v>
+        <v>62840</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>95842</v>
+        <v>95520</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.2174417176395612</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1731797905745711</v>
+        <v>0.1728989804721897</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2637004905737553</v>
+        <v>0.2628166595626267</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>109</v>
@@ -3578,19 +3578,19 @@
         <v>122611</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>101708</v>
+        <v>102112</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>143641</v>
+        <v>143061</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2106610299020565</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.174747273146816</v>
+        <v>0.1754408294576804</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.246793368232306</v>
+        <v>0.2457953863965701</v>
       </c>
     </row>
     <row r="44">
@@ -3607,19 +3607,19 @@
         <v>99927</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>84295</v>
+        <v>84407</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>115385</v>
+        <v>115998</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.4571583266760012</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.3856465054533276</v>
+        <v>0.3861576044143933</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.5278808807329558</v>
+        <v>0.5306826025189441</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>140</v>
@@ -3628,19 +3628,19 @@
         <v>153864</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>134201</v>
+        <v>135890</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>174424</v>
+        <v>172379</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.423344010299938</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.3692427777709885</v>
+        <v>0.3738894214687857</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.4799129965650294</v>
+        <v>0.4742862479103342</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>228</v>
@@ -3649,19 +3649,19 @@
         <v>253791</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>226063</v>
+        <v>230513</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>279196</v>
+        <v>278022</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.4360430109852602</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.3884042004464918</v>
+        <v>0.3960501287506468</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.4796933866955623</v>
+        <v>0.4776763091671078</v>
       </c>
     </row>
     <row r="45">
@@ -3753,19 +3753,19 @@
         <v>258353</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>226908</v>
+        <v>227509</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>290009</v>
+        <v>292007</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.09567610612831899</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.08403092599777906</v>
+        <v>0.08425355455955903</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1073992923499822</v>
+        <v>0.1081393321328449</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>183</v>
@@ -3774,19 +3774,19 @@
         <v>198332</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>172138</v>
+        <v>170571</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>229520</v>
+        <v>228557</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.06533175442737356</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.05670319367753041</v>
+        <v>0.05618710322438633</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.07560500601284471</v>
+        <v>0.07528795879368839</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>427</v>
@@ -3795,19 +3795,19 @@
         <v>456686</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>417360</v>
+        <v>413248</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>501036</v>
+        <v>497269</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.07961655384562562</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.07276075985932948</v>
+        <v>0.07204389402177802</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.08734836130105073</v>
+        <v>0.08669167585099034</v>
       </c>
     </row>
     <row r="47">
@@ -3824,19 +3824,19 @@
         <v>646521</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>599558</v>
+        <v>599977</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>688528</v>
+        <v>692783</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.2394264389331382</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.2220347384480747</v>
+        <v>0.2221899978355684</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2549829061379985</v>
+        <v>0.2565588211812488</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>551</v>
@@ -3845,19 +3845,19 @@
         <v>593490</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>550084</v>
+        <v>549645</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>641281</v>
+        <v>639194</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.195498616751786</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1812004992108676</v>
+        <v>0.181055927316715</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2112413970628945</v>
+        <v>0.2105539261000377</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>1163</v>
@@ -3866,19 +3866,19 @@
         <v>1240010</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1179571</v>
+        <v>1176098</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>1305399</v>
+        <v>1304841</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.2161779225720421</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.2056412181307201</v>
+        <v>0.2050356781287039</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2275775596323813</v>
+        <v>0.2274801786190345</v>
       </c>
     </row>
     <row r="48">
@@ -3895,19 +3895,19 @@
         <v>858965</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>815179</v>
+        <v>811913</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>913440</v>
+        <v>911233</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.3181010430384508</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.3018859822797468</v>
+        <v>0.3006764977868378</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.3382749918822622</v>
+        <v>0.3374573989728824</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>848</v>
@@ -3916,19 +3916,19 @@
         <v>920837</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>867170</v>
+        <v>868836</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>970787</v>
+        <v>971781</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.3033284974892932</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.285650273243548</v>
+        <v>0.2861992642115355</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.3197822263593219</v>
+        <v>0.3201097467343524</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>1649</v>
@@ -3937,19 +3937,19 @@
         <v>1779802</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>1712151</v>
+        <v>1712327</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>1859775</v>
+        <v>1856980</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.3102827686546955</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.2984888963347287</v>
+        <v>0.2985196330356575</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.3242250616433201</v>
+        <v>0.3237376901124909</v>
       </c>
     </row>
     <row r="49">
@@ -3966,19 +3966,19 @@
         <v>339031</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>302739</v>
+        <v>303373</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>377542</v>
+        <v>376484</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.1255536119386675</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.112113718942977</v>
+        <v>0.1123482639964108</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.1398152216705826</v>
+        <v>0.1394236815830181</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>408</v>
@@ -3987,19 +3987,19 @@
         <v>436839</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>396478</v>
+        <v>400326</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>478581</v>
+        <v>480825</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.1438971552277296</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.130602053535868</v>
+        <v>0.1318695948864713</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.1576469988524482</v>
+        <v>0.1583861570614488</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>712</v>
@@ -4008,19 +4008,19 @@
         <v>775870</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>723847</v>
+        <v>727905</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>834836</v>
+        <v>831830</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.1352618138275667</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.1261922228329551</v>
+        <v>0.126899797809892</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.1455416902194409</v>
+        <v>0.1450175322075564</v>
       </c>
     </row>
     <row r="50">
@@ -4037,19 +4037,19 @@
         <v>597419</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>551626</v>
+        <v>555634</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>646066</v>
+        <v>647205</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.2212427999614245</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.2042842017679749</v>
+        <v>0.205768438320811</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.2392582379177674</v>
+        <v>0.2396800675849499</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>818</v>
@@ -4058,19 +4058,19 @@
         <v>886276</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>841742</v>
+        <v>834430</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>941445</v>
+        <v>940173</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.2919439761038176</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.2772743551024374</v>
+        <v>0.2748656761961971</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.3101168666301845</v>
+        <v>0.3096979307514999</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>1369</v>
@@ -4079,19 +4079,19 @@
         <v>1483695</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>1413904</v>
+        <v>1420436</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>1552841</v>
+        <v>1555764</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.2586609411000701</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.2464938408591704</v>
+        <v>0.2476325530916203</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.2707153845813465</v>
+        <v>0.2712249953619138</v>
       </c>
     </row>
     <row r="51">
@@ -4426,19 +4426,19 @@
         <v>32177</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>23645</v>
+        <v>22393</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45399</v>
+        <v>43110</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.150426431323828</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1105367016446872</v>
+        <v>0.1046866474820734</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2122378395794186</v>
+        <v>0.2015370609415642</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>22</v>
@@ -4447,19 +4447,19 @@
         <v>20402</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13215</v>
+        <v>13355</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30740</v>
+        <v>30007</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08433538852379338</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0546266633798411</v>
+        <v>0.05520387981745561</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1270693151932547</v>
+        <v>0.124039503120733</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>52</v>
@@ -4468,19 +4468,19 @@
         <v>52579</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>39829</v>
+        <v>41274</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>67250</v>
+        <v>67651</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1153503442061874</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08737839346107745</v>
+        <v>0.0905493706662084</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1475347123466915</v>
+        <v>0.1484140925603006</v>
       </c>
     </row>
     <row r="5">
@@ -4497,19 +4497,19 @@
         <v>84713</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>70066</v>
+        <v>71092</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>101035</v>
+        <v>99713</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.396027562448666</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3275525435447154</v>
+        <v>0.3323494917956206</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4723326613378427</v>
+        <v>0.4661533952199723</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>89</v>
@@ -4518,19 +4518,19 @@
         <v>88138</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>74225</v>
+        <v>73999</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>104954</v>
+        <v>104891</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3643343691668273</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3068209129417208</v>
+        <v>0.3058872030287278</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4338460981525948</v>
+        <v>0.4335856700953723</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>170</v>
@@ -4539,19 +4539,19 @@
         <v>172851</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>150962</v>
+        <v>153640</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>193256</v>
+        <v>197027</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3792072315612646</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3311844885410446</v>
+        <v>0.3370611986862101</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4239712471112797</v>
+        <v>0.4322454693402331</v>
       </c>
     </row>
     <row r="6">
@@ -4568,19 +4568,19 @@
         <v>49613</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>38671</v>
+        <v>37231</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>63838</v>
+        <v>62836</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2319382089000774</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1807846717112682</v>
+        <v>0.1740535179382265</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2984378656088875</v>
+        <v>0.2937560846632412</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>72</v>
@@ -4589,19 +4589,19 @@
         <v>70938</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>56381</v>
+        <v>56648</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>85145</v>
+        <v>85274</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2932320679200855</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2330583067310923</v>
+        <v>0.2341656930899347</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3519613483352737</v>
+        <v>0.3524926567541887</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>118</v>
@@ -4610,19 +4610,19 @@
         <v>120551</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>102804</v>
+        <v>102621</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>141368</v>
+        <v>139342</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.264468316576954</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2255348967702894</v>
+        <v>0.2251333239450871</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3101389928218138</v>
+        <v>0.3056927255858917</v>
       </c>
     </row>
     <row r="7">
@@ -4639,19 +4639,19 @@
         <v>19499</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11639</v>
+        <v>12131</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>29284</v>
+        <v>29676</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09115596969607472</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05441234387000324</v>
+        <v>0.0567129771420821</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1368996741537724</v>
+        <v>0.1387319371151434</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>24</v>
@@ -4660,19 +4660,19 @@
         <v>23561</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>15857</v>
+        <v>15736</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>33393</v>
+        <v>34016</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09739512799621261</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06554595575856265</v>
+        <v>0.06504810477244349</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1380363021902852</v>
+        <v>0.1406123203563243</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>42</v>
@@ -4681,19 +4681,19 @@
         <v>43060</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>32033</v>
+        <v>30863</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>59661</v>
+        <v>57000</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09446723928427786</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07027412411821669</v>
+        <v>0.06770839302804993</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1308860124803461</v>
+        <v>0.1250489774039471</v>
       </c>
     </row>
     <row r="8">
@@ -4710,19 +4710,19 @@
         <v>27905</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>18553</v>
+        <v>18723</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>39055</v>
+        <v>38820</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1304518276313538</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08673260027982181</v>
+        <v>0.08752923016237393</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1825776575203464</v>
+        <v>0.1814825753097692</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>39</v>
@@ -4731,19 +4731,19 @@
         <v>38877</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>28576</v>
+        <v>28336</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>50808</v>
+        <v>50975</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1607030463930811</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1181236043106454</v>
+        <v>0.1171322249490719</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2100248516108708</v>
+        <v>0.2107142104494452</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>65</v>
@@ -4752,19 +4752,19 @@
         <v>66781</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>51753</v>
+        <v>53011</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>83058</v>
+        <v>83342</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1465068683713162</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1135372222538934</v>
+        <v>0.1162970422097709</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1822163350430885</v>
+        <v>0.1828383186051155</v>
       </c>
     </row>
     <row r="9">
@@ -4856,19 +4856,19 @@
         <v>72023</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>57639</v>
+        <v>56280</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>88855</v>
+        <v>87942</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1892391722536411</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1514449059606729</v>
+        <v>0.147875311023124</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2334652535710637</v>
+        <v>0.2310647924399315</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>45</v>
@@ -4877,19 +4877,19 @@
         <v>42737</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>31997</v>
+        <v>31970</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>55721</v>
+        <v>55569</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09531916653942356</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07136496986592959</v>
+        <v>0.07130424861765615</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.124277973513049</v>
+        <v>0.1239401653369619</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>114</v>
@@ -4898,19 +4898,19 @@
         <v>114760</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>96525</v>
+        <v>95097</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>138195</v>
+        <v>134966</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1384403254924404</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1164423450464658</v>
+        <v>0.1147194022432386</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.166710602828484</v>
+        <v>0.1628155458852119</v>
       </c>
     </row>
     <row r="11">
@@ -4927,19 +4927,19 @@
         <v>135893</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>116741</v>
+        <v>118075</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>155422</v>
+        <v>155480</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3570566178452067</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3067352768738676</v>
+        <v>0.3102396151087121</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4083676141293814</v>
+        <v>0.4085205420936603</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>148</v>
@@ -4948,19 +4948,19 @@
         <v>145220</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>125656</v>
+        <v>127559</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>165495</v>
+        <v>168667</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3238928162530691</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2802587560323632</v>
+        <v>0.2845025227329415</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3691141442811607</v>
+        <v>0.3761900630447473</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>280</v>
@@ -4969,19 +4969,19 @@
         <v>281113</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>257219</v>
+        <v>253471</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>311441</v>
+        <v>308039</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3391191947979375</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3102947038175082</v>
+        <v>0.3057736253168751</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3757050536971138</v>
+        <v>0.3716009611743757</v>
       </c>
     </row>
     <row r="12">
@@ -4998,19 +4998,19 @@
         <v>109538</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>92732</v>
+        <v>93392</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>127491</v>
+        <v>129132</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2878087235556411</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2436508614515731</v>
+        <v>0.2453858837054866</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3349786801587186</v>
+        <v>0.3392922005004121</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>148</v>
@@ -5019,19 +5019,19 @@
         <v>142019</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>122974</v>
+        <v>123063</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>161742</v>
+        <v>160897</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3167536534346727</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2742771053820094</v>
+        <v>0.2744757941298684</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3607439477859829</v>
+        <v>0.3588590785992591</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>254</v>
@@ -5040,19 +5040,19 @@
         <v>251557</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>227325</v>
+        <v>227712</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>278115</v>
+        <v>279606</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3034642704889825</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.27423219189169</v>
+        <v>0.2746992202268399</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3355023093545242</v>
+        <v>0.3373013752902886</v>
       </c>
     </row>
     <row r="13">
@@ -5069,19 +5069,19 @@
         <v>26167</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>17307</v>
+        <v>16927</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>38050</v>
+        <v>37224</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06875261440659153</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04547289817066286</v>
+        <v>0.0444753995262942</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09997629400106857</v>
+        <v>0.09780529465317161</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>48</v>
@@ -5090,19 +5090,19 @@
         <v>47851</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>35261</v>
+        <v>35871</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>62439</v>
+        <v>60867</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1067244298277572</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07864558250294033</v>
+        <v>0.08000459489824009</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1392612434109437</v>
+        <v>0.1357556552033654</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>73</v>
@@ -5111,19 +5111,19 @@
         <v>74017</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>58757</v>
+        <v>58364</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>91254</v>
+        <v>91856</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08929056495456937</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07088163222959944</v>
+        <v>0.07040677554625741</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.110083557031183</v>
+        <v>0.1108095310275538</v>
       </c>
     </row>
     <row r="14">
@@ -5140,19 +5140,19 @@
         <v>36972</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>26431</v>
+        <v>26394</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>50133</v>
+        <v>49739</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.09714287193891952</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06944644580714254</v>
+        <v>0.06934958310421412</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1317235160937213</v>
+        <v>0.1306878591258367</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>71</v>
@@ -5161,19 +5161,19 @@
         <v>70531</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>55347</v>
+        <v>56250</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>86246</v>
+        <v>87616</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1573099339450774</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1234430183693473</v>
+        <v>0.125458278585875</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.192360619431595</v>
+        <v>0.1954167801778499</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>107</v>
@@ -5182,19 +5182,19 @@
         <v>107503</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>87424</v>
+        <v>88853</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>127866</v>
+        <v>127226</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1296856442660703</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1054639161910271</v>
+        <v>0.1071872912213381</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1542510816771329</v>
+        <v>0.1534780488737119</v>
       </c>
     </row>
     <row r="15">
@@ -5286,19 +5286,19 @@
         <v>69769</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>55314</v>
+        <v>54348</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>88717</v>
+        <v>85818</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1345458888913911</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1066696014637852</v>
+        <v>0.1048076679781721</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1710870856257321</v>
+        <v>0.1654963882217516</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>73</v>
@@ -5307,19 +5307,19 @@
         <v>73790</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>58604</v>
+        <v>58163</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>90486</v>
+        <v>91402</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1358312118923892</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1078768787960098</v>
+        <v>0.1070658342301133</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1665662298441254</v>
+        <v>0.1682517730603353</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>140</v>
@@ -5328,19 +5328,19 @@
         <v>143559</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>122013</v>
+        <v>121953</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>168042</v>
+        <v>166226</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1352034982314976</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1149117712217011</v>
+        <v>0.1148550893970401</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1582621660590222</v>
+        <v>0.1565513461522402</v>
       </c>
     </row>
     <row r="17">
@@ -5357,19 +5357,19 @@
         <v>168624</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>148168</v>
+        <v>147262</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>192726</v>
+        <v>190200</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3251840059902502</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2857348024613935</v>
+        <v>0.2839889656740767</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3716639920236595</v>
+        <v>0.3667927161715916</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>160</v>
@@ -5378,19 +5378,19 @@
         <v>156110</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>133916</v>
+        <v>134633</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>177405</v>
+        <v>176434</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2873650191325602</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.246510988357258</v>
+        <v>0.2478304126143922</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3265652068412749</v>
+        <v>0.3247781656184543</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>322</v>
@@ -5399,19 +5399,19 @@
         <v>324734</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>294201</v>
+        <v>298069</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>355624</v>
+        <v>357064</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3058346914820154</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2770783986810111</v>
+        <v>0.2807216476470921</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3349266845335466</v>
+        <v>0.3362830297322287</v>
       </c>
     </row>
     <row r="18">
@@ -5428,19 +5428,19 @@
         <v>161659</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>142220</v>
+        <v>140840</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>184104</v>
+        <v>182936</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3117512281766704</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2742641425204942</v>
+        <v>0.2716039494656431</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.355035879475565</v>
+        <v>0.3527834089795082</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>160</v>
@@ -5449,19 +5449,19 @@
         <v>160984</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>141406</v>
+        <v>139598</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>181906</v>
+        <v>181031</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2963366274851831</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2602985475430469</v>
+        <v>0.2569695282490646</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.334850935279561</v>
+        <v>0.3332386282614121</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>315</v>
@@ -5470,19 +5470,19 @@
         <v>322642</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>294621</v>
+        <v>293329</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>353938</v>
+        <v>352240</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3038646616242459</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2774745179530332</v>
+        <v>0.2762576176721874</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3333388040216689</v>
+        <v>0.3317398824940815</v>
       </c>
     </row>
     <row r="19">
@@ -5499,19 +5499,19 @@
         <v>53324</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>41044</v>
+        <v>40506</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>70383</v>
+        <v>69653</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1028332033721108</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07915144508187028</v>
+        <v>0.07811458019279324</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1357304148658414</v>
+        <v>0.1343217503265452</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>64</v>
@@ -5520,19 +5520,19 @@
         <v>63585</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>50019</v>
+        <v>49702</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>79409</v>
+        <v>79525</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1170464732825461</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0920750868437181</v>
+        <v>0.09149070984524302</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1461741977896649</v>
+        <v>0.1463890896852746</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>113</v>
@@ -5541,19 +5541,19 @@
         <v>116909</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>98120</v>
+        <v>97540</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>139229</v>
+        <v>139148</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1101051334934097</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09240917773983807</v>
+        <v>0.09186357892370323</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1311259265905745</v>
+        <v>0.1310500777256781</v>
       </c>
     </row>
     <row r="20">
@@ -5570,19 +5570,19 @@
         <v>65174</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>49986</v>
+        <v>50519</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>81022</v>
+        <v>81767</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1256856735695774</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.09639625210680411</v>
+        <v>0.09742416903237636</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.156246474725023</v>
+        <v>0.1576844176092144</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>90</v>
@@ -5591,19 +5591,19 @@
         <v>88778</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>72104</v>
+        <v>73299</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>106703</v>
+        <v>107016</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1634206682073213</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1327282330240845</v>
+        <v>0.1349277019754851</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1964177213842631</v>
+        <v>0.1969941205687953</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>151</v>
@@ -5612,19 +5612,19 @@
         <v>153952</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>130298</v>
+        <v>132091</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>178336</v>
+        <v>179065</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1449920151688313</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.122714486115996</v>
+        <v>0.124403635158857</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1679566712633122</v>
+        <v>0.1686437154315628</v>
       </c>
     </row>
     <row r="21">
@@ -5716,19 +5716,19 @@
         <v>70776</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>55244</v>
+        <v>56153</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>87999</v>
+        <v>89246</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1315710684409615</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1026981177196953</v>
+        <v>0.1043862978389033</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1635890325098941</v>
+        <v>0.1659054970645115</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>53</v>
@@ -5737,19 +5737,19 @@
         <v>56610</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>43825</v>
+        <v>42382</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>73643</v>
+        <v>71654</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09875811112817688</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07645544123148847</v>
+        <v>0.07393819411828567</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1284730795619038</v>
+        <v>0.1250039752842048</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>119</v>
@@ -5758,19 +5758,19 @@
         <v>127386</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>107235</v>
+        <v>106359</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>151334</v>
+        <v>148595</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1146436005369611</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0965083974525866</v>
+        <v>0.0957204121292092</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1361961219163806</v>
+        <v>0.1337312485381498</v>
       </c>
     </row>
     <row r="23">
@@ -5787,19 +5787,19 @@
         <v>144773</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>125117</v>
+        <v>124977</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>169241</v>
+        <v>166342</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2691303645952779</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2325899278796057</v>
+        <v>0.2323291962731096</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3146148434123443</v>
+        <v>0.3092258398428806</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>165</v>
@@ -5808,19 +5808,19 @@
         <v>178067</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>154937</v>
+        <v>156149</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>201524</v>
+        <v>200745</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3106460666739024</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2702943467120092</v>
+        <v>0.2724087526625615</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3515679319214537</v>
+        <v>0.3502098618123092</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>296</v>
@@ -5829,19 +5829,19 @@
         <v>322840</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>291166</v>
+        <v>292831</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>352273</v>
+        <v>353038</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2905473831147928</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2620413237236499</v>
+        <v>0.2635399205421661</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3170366908459369</v>
+        <v>0.3177246661227547</v>
       </c>
     </row>
     <row r="24">
@@ -5858,19 +5858,19 @@
         <v>161922</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>141025</v>
+        <v>140797</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>186580</v>
+        <v>185342</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3010100300960023</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2621632532558119</v>
+        <v>0.261738652892393</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3468477221163921</v>
+        <v>0.3445460265942931</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>157</v>
@@ -5879,19 +5879,19 @@
         <v>171510</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>149470</v>
+        <v>150990</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>193100</v>
+        <v>194465</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2992071344308993</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2607580513631862</v>
+        <v>0.2634100434663157</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3368722590726926</v>
+        <v>0.3392528839511681</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>303</v>
@@ -5900,19 +5900,19 @@
         <v>333432</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>303356</v>
+        <v>301833</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>366084</v>
+        <v>365453</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3000799567041291</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2730126619953909</v>
+        <v>0.2716415175662376</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.329465485117521</v>
+        <v>0.3288981563023419</v>
       </c>
     </row>
     <row r="25">
@@ -5929,19 +5929,19 @@
         <v>66313</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>51089</v>
+        <v>51403</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>84381</v>
+        <v>83769</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1232735744054859</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09497365703448998</v>
+        <v>0.09555748183885346</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.156862375368788</v>
+        <v>0.1557252515520163</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>77</v>
@@ -5950,19 +5950,19 @@
         <v>80927</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>65097</v>
+        <v>65701</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>99233</v>
+        <v>99860</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1411814543064062</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1135646909633058</v>
+        <v>0.1146188806933795</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1731164196116796</v>
+        <v>0.1742111174737445</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>137</v>
@@ -5971,19 +5971,19 @@
         <v>147240</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>126553</v>
+        <v>126280</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>174035</v>
+        <v>171638</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1325118475474625</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1138945727462226</v>
+        <v>0.1136482756007484</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.156627042640042</v>
+        <v>0.1544698914477224</v>
       </c>
     </row>
     <row r="26">
@@ -6000,19 +6000,19 @@
         <v>94146</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>77650</v>
+        <v>76829</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>114242</v>
+        <v>114944</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1750149624622724</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1443494965686037</v>
+        <v>0.142822491964007</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2123740012308232</v>
+        <v>0.2136785708031426</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>81</v>
@@ -6021,19 +6021,19 @@
         <v>86101</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>70055</v>
+        <v>69777</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>105841</v>
+        <v>105365</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1502072334606152</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1222140636328004</v>
+        <v>0.1217298229270225</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1846441322679105</v>
+        <v>0.1838143159993666</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>165</v>
@@ -6042,19 +6042,19 @@
         <v>180247</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>155051</v>
+        <v>155755</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>206325</v>
+        <v>207856</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1622172120966546</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1395419321261531</v>
+        <v>0.1401750321599059</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.185687389444474</v>
+        <v>0.1870652476028143</v>
       </c>
     </row>
     <row r="27">
@@ -6146,19 +6146,19 @@
         <v>42734</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>30898</v>
+        <v>31517</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>58853</v>
+        <v>57208</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.09835742055976701</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.07111468350880612</v>
+        <v>0.07253956124747453</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1354559478587939</v>
+        <v>0.1316693422171242</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>20</v>
@@ -6167,19 +6167,19 @@
         <v>23983</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>14953</v>
+        <v>14927</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>36889</v>
+        <v>34467</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.05262444951555605</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03281070395699113</v>
+        <v>0.03275359183297872</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.08094190052860474</v>
+        <v>0.0756280882427371</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>57</v>
@@ -6188,19 +6188,19 @@
         <v>66718</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>51508</v>
+        <v>51243</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>85136</v>
+        <v>84660</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.07494481007507925</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05785906979493373</v>
+        <v>0.05756181219944206</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.09563453497304752</v>
+        <v>0.09509965971148539</v>
       </c>
     </row>
     <row r="29">
@@ -6217,19 +6217,19 @@
         <v>98563</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>81565</v>
+        <v>80548</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>119738</v>
+        <v>116885</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2268525200272092</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1877291961357626</v>
+        <v>0.1853887432663347</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2755894401287833</v>
+        <v>0.269021221332537</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>94</v>
@@ -6238,19 +6238,19 @@
         <v>108299</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>89787</v>
+        <v>88849</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>126914</v>
+        <v>127173</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2376313911370242</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1970131232450634</v>
+        <v>0.1949532667861753</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.278477430091895</v>
+        <v>0.2790449995462346</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>181</v>
@@ -6259,19 +6259,19 @@
         <v>206862</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>182891</v>
+        <v>181735</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>235542</v>
+        <v>234388</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2323706725765983</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2054442933748638</v>
+        <v>0.2041454616854895</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2645871770766339</v>
+        <v>0.263290908073937</v>
       </c>
     </row>
     <row r="30">
@@ -6288,19 +6288,19 @@
         <v>134120</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>115146</v>
+        <v>114945</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>155066</v>
+        <v>153729</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3086902339928156</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2650192653221778</v>
+        <v>0.2645578032140115</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3568989595361093</v>
+        <v>0.3538231441221196</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>119</v>
@@ -6309,19 +6309,19 @@
         <v>136905</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>116523</v>
+        <v>116838</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>158020</v>
+        <v>158660</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3003996904250696</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.25567636942262</v>
+        <v>0.2563686426729718</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3467315114291352</v>
+        <v>0.3481341784292937</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>240</v>
@@ -6330,19 +6330,19 @@
         <v>271025</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>244590</v>
+        <v>243949</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>300184</v>
+        <v>299782</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.304445959832925</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2747515608912995</v>
+        <v>0.2740312370460622</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3372009066665425</v>
+        <v>0.3367491777994065</v>
       </c>
     </row>
     <row r="31">
@@ -6359,19 +6359,19 @@
         <v>74756</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>60026</v>
+        <v>60097</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>91960</v>
+        <v>91923</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.17205871238101</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1381557359578285</v>
+        <v>0.1383179041131462</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2116545098290842</v>
+        <v>0.2115699393163407</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>70</v>
@@ -6380,19 +6380,19 @@
         <v>78797</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>63057</v>
+        <v>61626</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>95971</v>
+        <v>96403</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1728968975304284</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1383602571102469</v>
+        <v>0.1352217063559986</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2105814510422305</v>
+        <v>0.2115286374702298</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>135</v>
@@ -6401,19 +6401,19 @@
         <v>153553</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>131082</v>
+        <v>130475</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>179314</v>
+        <v>178528</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1724878142296175</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1472462892221138</v>
+        <v>0.1465641069964944</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2014257108086467</v>
+        <v>0.2005425456324618</v>
       </c>
     </row>
     <row r="32">
@@ -6430,19 +6430,19 @@
         <v>84307</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>66504</v>
+        <v>67817</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>101743</v>
+        <v>102101</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1940411130391982</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1530651489346517</v>
+        <v>0.1560871740796549</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2341720945756206</v>
+        <v>0.2349948874420529</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>95</v>
@@ -6451,19 +6451,19 @@
         <v>107759</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>89493</v>
+        <v>88195</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>127186</v>
+        <v>126854</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2364475713919217</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.196366832147741</v>
+        <v>0.1935190279636048</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.279073617621969</v>
+        <v>0.2783455283494662</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>171</v>
@@ -6472,19 +6472,19 @@
         <v>192066</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>166245</v>
+        <v>166609</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>218020</v>
+        <v>217294</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2157507432857799</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1867449957365138</v>
+        <v>0.1871545671792553</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2449050101029181</v>
+        <v>0.2440891850856536</v>
       </c>
     </row>
     <row r="33">
@@ -6576,19 +6576,19 @@
         <v>13967</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>7306</v>
+        <v>8127</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>23860</v>
+        <v>24060</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.04334257136536018</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.0226724305720982</v>
+        <v>0.02521969814720131</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.07404124059670873</v>
+        <v>0.07466307256510443</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>8</v>
@@ -6597,19 +6597,19 @@
         <v>8785</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>3871</v>
+        <v>4046</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>16821</v>
+        <v>17295</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.02421883375797541</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01067283807566107</v>
+        <v>0.01115381345898962</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.04637200708792531</v>
+        <v>0.0476791517063975</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>21</v>
@@ -6618,19 +6618,19 @@
         <v>22752</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>14206</v>
+        <v>14144</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>34812</v>
+        <v>34235</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.03321550193123361</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.02073863806548461</v>
+        <v>0.02064923430654458</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.05082148588135841</v>
+        <v>0.04997839095725291</v>
       </c>
     </row>
     <row r="35">
@@ -6647,19 +6647,19 @@
         <v>63551</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>50431</v>
+        <v>50269</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>78166</v>
+        <v>77736</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1972105674597265</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1564962149784815</v>
+        <v>0.1559930193610883</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2425647712892705</v>
+        <v>0.241230392743897</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>49</v>
@@ -6668,19 +6668,19 @@
         <v>52677</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>40833</v>
+        <v>40297</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>69161</v>
+        <v>67520</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1452202741524554</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1125676744902614</v>
+        <v>0.1110913349021983</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1906619047942211</v>
+        <v>0.1861384528423504</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>113</v>
@@ -6689,19 +6689,19 @@
         <v>116228</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>98468</v>
+        <v>97124</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>137789</v>
+        <v>136672</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1696788515874054</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.143752124659585</v>
+        <v>0.1417887004686497</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2011548393772569</v>
+        <v>0.1995246874133298</v>
       </c>
     </row>
     <row r="36">
@@ -6718,19 +6718,19 @@
         <v>99191</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>82874</v>
+        <v>82986</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>116787</v>
+        <v>115881</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3078094450101709</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.257172392202225</v>
+        <v>0.2575227185259384</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3624127084788794</v>
+        <v>0.3596011739794028</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>119</v>
@@ -6739,19 +6739,19 @@
         <v>126431</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>108843</v>
+        <v>107915</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>145075</v>
+        <v>143535</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3485464943193142</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3000593603513207</v>
+        <v>0.2975006113912926</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3999422908985601</v>
+        <v>0.3956976341711595</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>217</v>
@@ -6760,19 +6760,19 @@
         <v>225623</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>199375</v>
+        <v>199481</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>250233</v>
+        <v>250961</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3293819501012167</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2910640427386788</v>
+        <v>0.291217630343466</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3653096348017283</v>
+        <v>0.3663724089052806</v>
       </c>
     </row>
     <row r="37">
@@ -6789,19 +6789,19 @@
         <v>60098</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>46672</v>
+        <v>46428</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>75485</v>
+        <v>73814</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1864968384487853</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1448320528453376</v>
+        <v>0.1440754412538928</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2342432395710199</v>
+        <v>0.2290577012896129</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>71</v>
@@ -6810,19 +6810,19 @@
         <v>75203</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>60806</v>
+        <v>61293</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>92348</v>
+        <v>93593</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2073211748833395</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1676312739931222</v>
+        <v>0.1689729366022845</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2545864065826414</v>
+        <v>0.2580175465734926</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>127</v>
@@ -6831,19 +6831,19 @@
         <v>135302</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>114579</v>
+        <v>115532</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>156943</v>
+        <v>158258</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1975244683672645</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1672719112402523</v>
+        <v>0.1686623789493896</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2291175064073747</v>
+        <v>0.2310377979538602</v>
       </c>
     </row>
     <row r="38">
@@ -6860,19 +6860,19 @@
         <v>85441</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>68305</v>
+        <v>70594</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>101270</v>
+        <v>102065</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2651405777159572</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2119648219971052</v>
+        <v>0.219067699649725</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3142589589726752</v>
+        <v>0.3167283686077467</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>92</v>
@@ -6881,19 +6881,19 @@
         <v>99642</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>83684</v>
+        <v>83673</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>117630</v>
+        <v>119112</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2746932228869154</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2307010196648822</v>
+        <v>0.2306707187786878</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3242833918602471</v>
+        <v>0.3283692626092712</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>174</v>
@@ -6902,19 +6902,19 @@
         <v>185083</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>162558</v>
+        <v>162663</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>212102</v>
+        <v>208609</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2701992280128798</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2373150685781571</v>
+        <v>0.2374684077146769</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.3096431434383541</v>
+        <v>0.3045440811010505</v>
       </c>
     </row>
     <row r="39">
@@ -7006,19 +7006,19 @@
         <v>6579</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>3194</v>
+        <v>3204</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>12412</v>
+        <v>11716</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.02693149025330131</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.01307690282948285</v>
+        <v>0.01311786973327104</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.05081325298170755</v>
+        <v>0.04796270741757362</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>6</v>
@@ -7027,19 +7027,19 @@
         <v>7898</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>3063</v>
+        <v>3092</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>15816</v>
+        <v>16201</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.02042139139875463</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.007921531061764634</v>
+        <v>0.007996029584522571</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.04089661092726127</v>
+        <v>0.04189172904295242</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>14</v>
@@ -7048,19 +7048,19 @@
         <v>14476</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>8112</v>
+        <v>8310</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>24861</v>
+        <v>24124</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.02294159707108392</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.01285581005719949</v>
+        <v>0.01317000615872773</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.03939872814730411</v>
+        <v>0.03823045417520973</v>
       </c>
     </row>
     <row r="41">
@@ -7077,19 +7077,19 @@
         <v>28123</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>20241</v>
+        <v>19548</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>38648</v>
+        <v>38251</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1151262061622245</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.0828597835639539</v>
+        <v>0.08002406641915538</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1582150616116487</v>
+        <v>0.1565898434165519</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>50</v>
@@ -7098,19 +7098,19 @@
         <v>65321</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>50529</v>
+        <v>49982</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>83274</v>
+        <v>84245</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1689061223830232</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1306565551843807</v>
+        <v>0.129244222177032</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2153288537804382</v>
+        <v>0.2178408121354238</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>84</v>
@@ -7119,19 +7119,19 @@
         <v>93443</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>75918</v>
+        <v>75312</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>114352</v>
+        <v>113381</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1480867073564155</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1203134046518036</v>
+        <v>0.1193528543652475</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1812227046485351</v>
+        <v>0.1796830284720632</v>
       </c>
     </row>
     <row r="42">
@@ -7148,19 +7148,19 @@
         <v>79401</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>67574</v>
+        <v>65802</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>93100</v>
+        <v>94144</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3250480818904137</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2766284525241545</v>
+        <v>0.2693768457085371</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.381125191483426</v>
+        <v>0.3853990727943255</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>94</v>
@@ -7169,19 +7169,19 @@
         <v>123478</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>105001</v>
+        <v>103976</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>145657</v>
+        <v>145537</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.3192873870756909</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2715097318858449</v>
+        <v>0.2688593571237663</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3766374482513051</v>
+        <v>0.3763274487992832</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>189</v>
@@ -7190,19 +7190,19 @@
         <v>202879</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>179183</v>
+        <v>178450</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>228391</v>
+        <v>229745</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.321517481590843</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2839649857424252</v>
+        <v>0.2828033729263194</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3619475326908868</v>
+        <v>0.364094234645028</v>
       </c>
     </row>
     <row r="43">
@@ -7219,19 +7219,19 @@
         <v>60160</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>48612</v>
+        <v>48026</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>73068</v>
+        <v>72684</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.2462790657364253</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1990064120682308</v>
+        <v>0.1966046084141752</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.299119055831191</v>
+        <v>0.297550010097533</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>53</v>
@@ -7240,19 +7240,19 @@
         <v>72663</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>57393</v>
+        <v>54974</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>92370</v>
+        <v>91477</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1878921874634455</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1484062948882457</v>
+        <v>0.1421515849395581</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2388495119214508</v>
+        <v>0.2365399318197113</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>124</v>
@@ -7261,19 +7261,19 @@
         <v>132823</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>112901</v>
+        <v>113496</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>155090</v>
+        <v>156459</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2104950611065078</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1789217334186016</v>
+        <v>0.1798651780770622</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2457821288745202</v>
+        <v>0.2479522094302054</v>
       </c>
     </row>
     <row r="44">
@@ -7290,19 +7290,19 @@
         <v>70013</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>58222</v>
+        <v>57402</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>83577</v>
+        <v>84473</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2866151559576352</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2383465829259004</v>
+        <v>0.2349877065520114</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.3421436997437518</v>
+        <v>0.3458083726003051</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>88</v>
@@ -7311,19 +7311,19 @@
         <v>117370</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>98339</v>
+        <v>98703</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>138997</v>
+        <v>139038</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.3034929116790858</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2542827258129049</v>
+        <v>0.2552248008977416</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.3594169278559161</v>
+        <v>0.35952198901917</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>167</v>
@@ -7332,19 +7332,19 @@
         <v>187383</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>164556</v>
+        <v>163258</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>212958</v>
+        <v>214767</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2969591528751498</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2607847675298746</v>
+        <v>0.2587271736155844</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.3374903980113423</v>
+        <v>0.3403568229966014</v>
       </c>
     </row>
     <row r="45">
@@ -7436,19 +7436,19 @@
         <v>308025</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>277311</v>
+        <v>276034</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>345703</v>
+        <v>342557</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1161489447654599</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.104567337657587</v>
+        <v>0.1040858016842705</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1303561630957834</v>
+        <v>0.1291699563345443</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>227</v>
@@ -7457,19 +7457,19 @@
         <v>234204</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>205650</v>
+        <v>203264</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>266006</v>
+        <v>263073</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.07775853125955176</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.06827800859801128</v>
+        <v>0.06748582767682096</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.08831717323245546</v>
+        <v>0.08734323945374063</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>517</v>
@@ -7478,19 +7478,19 @@
         <v>542230</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>502028</v>
+        <v>501597</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>589399</v>
+        <v>591127</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.0957338308588863</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.08863598705960209</v>
+        <v>0.08855992357219847</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.1040617843488185</v>
+        <v>0.1043669463320527</v>
       </c>
     </row>
     <row r="47">
@@ -7507,19 +7507,19 @@
         <v>724240</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>674988</v>
+        <v>676211</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>774139</v>
+        <v>771507</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.2730935616180221</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.2545216588812297</v>
+        <v>0.2549830332087344</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2919091720559633</v>
+        <v>0.2909168790132415</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>755</v>
@@ -7528,19 +7528,19 @@
         <v>793832</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>746977</v>
+        <v>749234</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>842652</v>
+        <v>844775</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.2635611550555855</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.248004858018386</v>
+        <v>0.2487543593156958</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2797698976415791</v>
+        <v>0.2804750233821817</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>1446</v>
@@ -7549,19 +7549,19 @@
         <v>1518072</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1446985</v>
+        <v>1455246</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>1584424</v>
+        <v>1586783</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.2680244532650745</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.2554736102570711</v>
+        <v>0.2569321307105969</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2797392969121744</v>
+        <v>0.280155858901503</v>
       </c>
     </row>
     <row r="48">
@@ -7578,19 +7578,19 @@
         <v>795445</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>743425</v>
+        <v>749354</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>843915</v>
+        <v>848517</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.2999430943395046</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.2803276061312969</v>
+        <v>0.2825632530605951</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.3182198944954533</v>
+        <v>0.3199552493363236</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>869</v>
@@ -7599,19 +7599,19 @@
         <v>932264</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>881459</v>
+        <v>884894</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>988222</v>
+        <v>986661</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.309522282288516</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.2926543907779774</v>
+        <v>0.2937948570803928</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.328100967408153</v>
+        <v>0.3275827719251496</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>1636</v>
@@ -7620,19 +7620,19 @@
         <v>1727709</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>1654173</v>
+        <v>1653640</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>1800348</v>
+        <v>1803916</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.3050370799273767</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.2920539023945424</v>
+        <v>0.2919597817732959</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.3178619910591459</v>
+        <v>0.3184919162951583</v>
       </c>
     </row>
     <row r="49">
@@ -7649,19 +7649,19 @@
         <v>360317</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>324387</v>
+        <v>327366</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>398625</v>
+        <v>399695</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.1358669140561655</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1223184074484189</v>
+        <v>0.1234418561389714</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.1503117513381944</v>
+        <v>0.1507154230636342</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>407</v>
@@ -7670,19 +7670,19 @@
         <v>442588</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>400909</v>
+        <v>402895</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>481259</v>
+        <v>482182</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.1469441689845955</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.13310621626757</v>
+        <v>0.1337657080314765</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.1597835974398858</v>
+        <v>0.1600899740662202</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>751</v>
@@ -7691,19 +7691,19 @@
         <v>802905</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>751681</v>
+        <v>748244</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>856062</v>
+        <v>857501</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.141757536231966</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.1327136972033613</v>
+        <v>0.1321069054152587</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.1511427275474031</v>
+        <v>0.1513967668622528</v>
       </c>
     </row>
     <row r="50">
@@ -7720,19 +7720,19 @@
         <v>463958</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>426538</v>
+        <v>427576</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>506681</v>
+        <v>504737</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.1749474852208479</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1608373561738903</v>
+        <v>0.1612286575627547</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1910571025602993</v>
+        <v>0.1903241397496889</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>556</v>
@@ -7741,19 +7741,19 @@
         <v>609057</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>567794</v>
+        <v>565427</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>653874</v>
+        <v>657800</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.2022138624117512</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.1885142017824617</v>
+        <v>0.1877281723620775</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.2170936323691246</v>
+        <v>0.2183970550791541</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>1000</v>
@@ -7762,19 +7762,19 @@
         <v>1073015</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>1014553</v>
+        <v>1014182</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>1133196</v>
+        <v>1134970</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.1894470997166966</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.1791252412143941</v>
+        <v>0.179059670290885</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.2000723219254933</v>
+        <v>0.2003856053955761</v>
       </c>
     </row>
     <row r="51">
@@ -8109,19 +8109,19 @@
         <v>30814</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18145</v>
+        <v>18127</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>49504</v>
+        <v>47442</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1748896355015899</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1029859930284914</v>
+        <v>0.1028810564006523</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2809718224475152</v>
+        <v>0.2692684785121789</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -8130,19 +8130,19 @@
         <v>30215</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18836</v>
+        <v>19241</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>43870</v>
+        <v>43309</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1436296139620092</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0895403747840981</v>
+        <v>0.09146225167074491</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2085385043195969</v>
+        <v>0.2058737635236039</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>37</v>
@@ -8151,19 +8151,19 @@
         <v>61029</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>44366</v>
+        <v>44000</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>83087</v>
+        <v>84542</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1578776435358993</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1147706324184554</v>
+        <v>0.1138240340034419</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.214941555568307</v>
+        <v>0.2187033369273717</v>
       </c>
     </row>
     <row r="5">
@@ -8180,19 +8180,19 @@
         <v>66908</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>46740</v>
+        <v>47618</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>86870</v>
+        <v>88420</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3797505859048718</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2652841222067999</v>
+        <v>0.2702651706723408</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4930458044385871</v>
+        <v>0.501846365998368</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>28</v>
@@ -8201,19 +8201,19 @@
         <v>50099</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>35325</v>
+        <v>35326</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>70037</v>
+        <v>69782</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.238148729477491</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1679207147791251</v>
+        <v>0.1679241462933201</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3329252010188427</v>
+        <v>0.3317135027686093</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>57</v>
@@ -8222,19 +8222,19 @@
         <v>117007</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>92061</v>
+        <v>90010</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>148116</v>
+        <v>146453</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.3026895499481513</v>
+        <v>0.3026895499481512</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2381548999599285</v>
+        <v>0.2328504309919313</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3831662745825998</v>
+        <v>0.3788637299088098</v>
       </c>
     </row>
     <row r="6">
@@ -8251,19 +8251,19 @@
         <v>46542</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>29134</v>
+        <v>29355</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>67850</v>
+        <v>68412</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.264156589896366</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1653555860852556</v>
+        <v>0.1666103536134089</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3850976061592028</v>
+        <v>0.3882828251186855</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>31</v>
@@ -8272,19 +8272,19 @@
         <v>54308</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>38397</v>
+        <v>38865</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>72941</v>
+        <v>71379</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.2581589647548425</v>
+        <v>0.2581589647548426</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1825246649540975</v>
+        <v>0.1847474522248819</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.346729990930272</v>
+        <v>0.3393045281366731</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>50</v>
@@ -8293,19 +8293,19 @@
         <v>100850</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>78393</v>
+        <v>74794</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>131529</v>
+        <v>126721</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2608926269911701</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2027967445866282</v>
+        <v>0.1934875267196291</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3402580457441772</v>
+        <v>0.3278187682168766</v>
       </c>
     </row>
     <row r="7">
@@ -8322,19 +8322,19 @@
         <v>19947</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8866</v>
+        <v>8860</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>38129</v>
+        <v>40213</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.1132113185905641</v>
+        <v>0.1132113185905642</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05031953412484293</v>
+        <v>0.05028741427138742</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2164095759926641</v>
+        <v>0.2282379253658535</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -8343,19 +8343,19 @@
         <v>22564</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12795</v>
+        <v>13084</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>36115</v>
+        <v>35876</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1072579831037663</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06082158786173633</v>
+        <v>0.06219352420061943</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1716773001457667</v>
+        <v>0.1705388332782574</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>21</v>
@@ -8364,19 +8364,19 @@
         <v>42510</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>25486</v>
+        <v>26617</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>63889</v>
+        <v>64050</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1099714585238579</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06593049588482068</v>
+        <v>0.0688556956505741</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.165277544780698</v>
+        <v>0.1656928986090455</v>
       </c>
     </row>
     <row r="8">
@@ -8393,19 +8393,19 @@
         <v>11979</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4800</v>
+        <v>4605</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>26983</v>
+        <v>25649</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.06799187010660809</v>
+        <v>0.06799187010660811</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02724339772436354</v>
+        <v>0.02613825223202546</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1531476976104222</v>
+        <v>0.1455767531386529</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>28</v>
@@ -8414,19 +8414,19 @@
         <v>53182</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>37569</v>
+        <v>35977</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>73103</v>
+        <v>71911</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2528047087018907</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1785859337292162</v>
+        <v>0.1710199664330076</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3475018463293551</v>
+        <v>0.3418365305121827</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>34</v>
@@ -8435,19 +8435,19 @@
         <v>65162</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>47101</v>
+        <v>45086</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>89101</v>
+        <v>87651</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.1685687210009216</v>
+        <v>0.1685687210009217</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1218464239016117</v>
+        <v>0.1166357053221378</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2304989753929648</v>
+        <v>0.2267466046593544</v>
       </c>
     </row>
     <row r="9">
@@ -8539,19 +8539,19 @@
         <v>37230</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>24137</v>
+        <v>24819</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>53730</v>
+        <v>52584</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1237985652669754</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08026223075249311</v>
+        <v>0.08252879208883412</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1786638804341164</v>
+        <v>0.1748528719653501</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>38</v>
@@ -8560,19 +8560,19 @@
         <v>39972</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>28005</v>
+        <v>29001</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>53477</v>
+        <v>52514</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1056603312251781</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07402687121505587</v>
+        <v>0.07665862365459419</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1413563589940931</v>
+        <v>0.1388132996913048</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>64</v>
@@ -8581,19 +8581,19 @@
         <v>77202</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>59940</v>
+        <v>59920</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>97829</v>
+        <v>97369</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1136933131026524</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08827194032514914</v>
+        <v>0.0882423571230139</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1440702669639475</v>
+        <v>0.1433917516734862</v>
       </c>
     </row>
     <row r="11">
@@ -8610,19 +8610,19 @@
         <v>112915</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>92758</v>
+        <v>92145</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>134116</v>
+        <v>136197</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3754711693365099</v>
+        <v>0.37547116933651</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3084432226052474</v>
+        <v>0.3064039461603063</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4459697712475877</v>
+        <v>0.4528884918211178</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>111</v>
@@ -8631,19 +8631,19 @@
         <v>121699</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>103301</v>
+        <v>102739</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>141854</v>
+        <v>140693</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3216919255014218</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2730597967201622</v>
+        <v>0.2715727965390587</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.374967997157506</v>
+        <v>0.3718985803422794</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>187</v>
@@ -8652,19 +8652,19 @@
         <v>234615</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>206883</v>
+        <v>206727</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>269309</v>
+        <v>265112</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3455094421414667</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3046697013248844</v>
+        <v>0.3044403771805591</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3966023629446271</v>
+        <v>0.3904220532709134</v>
       </c>
     </row>
     <row r="12">
@@ -8681,19 +8681,19 @@
         <v>93140</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>71755</v>
+        <v>73156</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>115127</v>
+        <v>117394</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3097129395857442</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2386037957049188</v>
+        <v>0.2432605079669458</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3828260629518999</v>
+        <v>0.3903623096451528</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>99</v>
@@ -8702,19 +8702,19 @@
         <v>103867</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>86294</v>
+        <v>86901</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>122661</v>
+        <v>123636</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2745554959572989</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2281031085873235</v>
+        <v>0.229708093137442</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3242331921417775</v>
+        <v>0.3268119719079335</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>155</v>
@@ -8723,19 +8723,19 @@
         <v>197007</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>169235</v>
+        <v>171140</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>223757</v>
+        <v>224681</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2901258710486572</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2492272375393235</v>
+        <v>0.2520322684129077</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.329519981123093</v>
+        <v>0.3308802949849395</v>
       </c>
     </row>
     <row r="13">
@@ -8752,19 +8752,19 @@
         <v>31621</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>20160</v>
+        <v>19555</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>49839</v>
+        <v>47395</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1051482038232463</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.067037414292661</v>
+        <v>0.06502489106943078</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1657275823266173</v>
+        <v>0.1576003493845157</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>42</v>
@@ -8773,19 +8773,19 @@
         <v>47461</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>34431</v>
+        <v>34721</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>63099</v>
+        <v>64296</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1254543786200085</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09101319968816114</v>
+        <v>0.09177954456740534</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1667926692947817</v>
+        <v>0.1699570473683576</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>62</v>
@@ -8794,19 +8794,19 @@
         <v>79082</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>60502</v>
+        <v>60082</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>100580</v>
+        <v>98830</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1164612686090048</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08909963730754279</v>
+        <v>0.08848137062358773</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1481214519628099</v>
+        <v>0.1455433077211013</v>
       </c>
     </row>
     <row r="14">
@@ -8823,19 +8823,19 @@
         <v>25823</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>15271</v>
+        <v>15752</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>39767</v>
+        <v>41341</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.08586912198752401</v>
+        <v>0.085869121987524</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05077994939904939</v>
+        <v>0.05237784644666481</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1322337660375666</v>
+        <v>0.1374672884584227</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>62</v>
@@ -8844,19 +8844,19 @@
         <v>65311</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>50118</v>
+        <v>51874</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>81212</v>
+        <v>82333</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1726378686960926</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1324796204567717</v>
+        <v>0.1371205615605831</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2146704673704289</v>
+        <v>0.2176326985685697</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>79</v>
@@ -8865,19 +8865,19 @@
         <v>91134</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>73588</v>
+        <v>73485</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>112251</v>
+        <v>112770</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.134210105098219</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1083706238264839</v>
+        <v>0.1082192742489076</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1653079065095156</v>
+        <v>0.1660724443383972</v>
       </c>
     </row>
     <row r="15">
@@ -8969,19 +8969,19 @@
         <v>51075</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>36952</v>
+        <v>38375</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>65868</v>
+        <v>67165</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1102480546231909</v>
+        <v>0.110248054623191</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0797631367058986</v>
+        <v>0.0828338721892089</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1421791497107925</v>
+        <v>0.1449802417750199</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>63</v>
@@ -8990,19 +8990,19 @@
         <v>48119</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>37616</v>
+        <v>37103</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>60312</v>
+        <v>59830</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09230790519864905</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07215842988453432</v>
+        <v>0.07117464779890631</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1156963360568285</v>
+        <v>0.1147722525344509</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>107</v>
@@ -9011,19 +9011,19 @@
         <v>99194</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>82936</v>
+        <v>81567</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>118751</v>
+        <v>116414</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.1007493716821859</v>
+        <v>0.1007493716821858</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08423587558593441</v>
+        <v>0.08284564406483029</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1206125120851143</v>
+        <v>0.1182394497849427</v>
       </c>
     </row>
     <row r="17">
@@ -9040,19 +9040,19 @@
         <v>146045</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>125766</v>
+        <v>126096</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>169548</v>
+        <v>166984</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.3152457937375033</v>
+        <v>0.3152457937375034</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2714742798728129</v>
+        <v>0.272186177493665</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3659789670367238</v>
+        <v>0.3604439174806572</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>210</v>
@@ -9061,19 +9061,19 @@
         <v>157884</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>141610</v>
+        <v>141331</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>177413</v>
+        <v>176332</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3028699872930222</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2716522893507001</v>
+        <v>0.2711163751869451</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3403325907913481</v>
+        <v>0.3382587128113028</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>336</v>
@@ -9082,19 +9082,19 @@
         <v>303928</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>276874</v>
+        <v>275993</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>332522</v>
+        <v>332102</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3086932361877562</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2812151638589669</v>
+        <v>0.2803203111328741</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3377356710982412</v>
+        <v>0.3373083922985619</v>
       </c>
     </row>
     <row r="18">
@@ -9111,19 +9111,19 @@
         <v>138575</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>118467</v>
+        <v>118992</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>160388</v>
+        <v>159629</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.2991215253371389</v>
+        <v>0.299121525337139</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2557184248433361</v>
+        <v>0.2568504598520266</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3462076560052473</v>
+        <v>0.3445695971768036</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>210</v>
@@ -9132,19 +9132,19 @@
         <v>149353</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>133105</v>
+        <v>133257</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>168918</v>
+        <v>166714</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2865056071288239</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2553358568985579</v>
+        <v>0.2556279243822875</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3240381250016946</v>
+        <v>0.3198089958528909</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>338</v>
@@ -9153,19 +9153,19 @@
         <v>287928</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>258413</v>
+        <v>258630</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>316500</v>
+        <v>312674</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.2924418369892535</v>
+        <v>0.2924418369892534</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2624640274781646</v>
+        <v>0.2626847739441868</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3214623821760669</v>
+        <v>0.3175760615237062</v>
       </c>
     </row>
     <row r="19">
@@ -9182,19 +9182,19 @@
         <v>64075</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>49742</v>
+        <v>50407</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>81123</v>
+        <v>81502</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.1383090053907022</v>
+        <v>0.1383090053907023</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1073700136709606</v>
+        <v>0.1088056111248957</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1751091659847207</v>
+        <v>0.175926554182099</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>93</v>
@@ -9203,19 +9203,19 @@
         <v>64792</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>52224</v>
+        <v>52809</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>77847</v>
+        <v>77949</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1242908632760113</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1001810320390701</v>
+        <v>0.1013039815684734</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1493346752298484</v>
+        <v>0.1495294841141561</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>151</v>
@@ -9224,19 +9224,19 @@
         <v>128867</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>108389</v>
+        <v>110523</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>149396</v>
+        <v>150521</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1308868884273258</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1100880128913156</v>
+        <v>0.1122553547553269</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1517384174141065</v>
+        <v>0.15288041317745</v>
       </c>
     </row>
     <row r="20">
@@ -9253,19 +9253,19 @@
         <v>63503</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>49582</v>
+        <v>48591</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>80938</v>
+        <v>79251</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1370756209114644</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1070251687004101</v>
+        <v>0.1048863754045006</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1747086319166596</v>
+        <v>0.1710688000956378</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>142</v>
@@ -9274,19 +9274,19 @@
         <v>101144</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>86787</v>
+        <v>85830</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>116374</v>
+        <v>115714</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1940256371034936</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1664838156856239</v>
+        <v>0.1646492091099897</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2232412306712421</v>
+        <v>0.2219758505047137</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>199</v>
@@ -9295,19 +9295,19 @@
         <v>164647</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>144869</v>
+        <v>141807</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>185783</v>
+        <v>186491</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.1672286667134787</v>
+        <v>0.1672286667134786</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1471406955240371</v>
+        <v>0.1440303191376331</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1886952014012987</v>
+        <v>0.1894145665086313</v>
       </c>
     </row>
     <row r="21">
@@ -9399,19 +9399,19 @@
         <v>48781</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>36234</v>
+        <v>35896</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>64542</v>
+        <v>65285</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08082157252491781</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06003334707699955</v>
+        <v>0.05947211894806522</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1069333923520743</v>
+        <v>0.108165549101343</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>69</v>
@@ -9420,19 +9420,19 @@
         <v>46037</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>36497</v>
+        <v>35457</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>56401</v>
+        <v>57503</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.06908021948550343</v>
+        <v>0.06908021948550344</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05476456812470221</v>
+        <v>0.05320358432497257</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08463031795674317</v>
+        <v>0.08628457762849963</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>112</v>
@@ -9441,19 +9441,19 @@
         <v>94819</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>77872</v>
+        <v>77411</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>114302</v>
+        <v>112992</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07466030205677507</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06131654260798156</v>
+        <v>0.0609534725327437</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09000103283350074</v>
+        <v>0.08896996314577736</v>
       </c>
     </row>
     <row r="23">
@@ -9470,19 +9470,19 @@
         <v>163391</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>141791</v>
+        <v>141528</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>185817</v>
+        <v>188096</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.270707935955484</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2349199394554661</v>
+        <v>0.2344853922812697</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3078626790431506</v>
+        <v>0.3116388369477575</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>272</v>
@@ -9491,19 +9491,19 @@
         <v>178937</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>160560</v>
+        <v>159834</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>196987</v>
+        <v>196093</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2684993299002593</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2409247026423068</v>
+        <v>0.2398349028505519</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.29558306469398</v>
+        <v>0.2942420844729007</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>428</v>
@@ -9512,19 +9512,19 @@
         <v>342328</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>309854</v>
+        <v>315225</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>369354</v>
+        <v>374174</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2695489707818675</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2439788909714808</v>
+        <v>0.2482079977273266</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2908293293232964</v>
+        <v>0.2946246066634802</v>
       </c>
     </row>
     <row r="24">
@@ -9541,19 +9541,19 @@
         <v>188725</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>167800</v>
+        <v>168279</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>214227</v>
+        <v>215387</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3126807652952945</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2780131560297256</v>
+        <v>0.2788065000069783</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3549323792340405</v>
+        <v>0.356854979501366</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>319</v>
@@ -9562,19 +9562,19 @@
         <v>202657</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>182827</v>
+        <v>184555</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>221882</v>
+        <v>221472</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3040910906770806</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2743362454264894</v>
+        <v>0.2769285692235643</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3329384946085597</v>
+        <v>0.3323235968795734</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>507</v>
@@ -9583,19 +9583,19 @@
         <v>391381</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>360464</v>
+        <v>359977</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>422126</v>
+        <v>421155</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.3081733368602155</v>
+        <v>0.3081733368602156</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2838288822484544</v>
+        <v>0.2834455068972381</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3323817322009643</v>
+        <v>0.3316169038807237</v>
       </c>
     </row>
     <row r="25">
@@ -9612,19 +9612,19 @@
         <v>81176</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>65246</v>
+        <v>64978</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>102250</v>
+        <v>99388</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1344932877837638</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.108099665908122</v>
+        <v>0.1076565095344011</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1694090130037231</v>
+        <v>0.1646670929097167</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>158</v>
@@ -9633,19 +9633,19 @@
         <v>98011</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>86047</v>
+        <v>84440</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>115149</v>
+        <v>112239</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1470671120376273</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1291156799863651</v>
+        <v>0.1267037620057641</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1727839509105069</v>
+        <v>0.1684169015461189</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>233</v>
@@ -9654,19 +9654,19 @@
         <v>179187</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>157424</v>
+        <v>158088</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>201332</v>
+        <v>203574</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1410913971998494</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1239552003743963</v>
+        <v>0.1244784319008254</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1585282642851869</v>
+        <v>0.1602942114479174</v>
       </c>
     </row>
     <row r="26">
@@ -9683,19 +9683,19 @@
         <v>121496</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>101752</v>
+        <v>98944</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>141347</v>
+        <v>142876</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2012964384405399</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1685837555376768</v>
+        <v>0.1639308582728934</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2341853184350039</v>
+        <v>0.2367173654135339</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>221</v>
@@ -9704,19 +9704,19 @@
         <v>140792</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>124097</v>
+        <v>124367</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>158881</v>
+        <v>158561</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2112622478995294</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1862103872326509</v>
+        <v>0.1866161696242725</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2384048534631944</v>
+        <v>0.2379241880750287</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>337</v>
@@ -9725,19 +9725,19 @@
         <v>262289</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>233447</v>
+        <v>235237</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>288011</v>
+        <v>289208</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2065259931012924</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1838157880814451</v>
+        <v>0.1852251117847511</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2267797511496647</v>
+        <v>0.2277217670866441</v>
       </c>
     </row>
     <row r="27">
@@ -9829,19 +9829,19 @@
         <v>47910</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>36210</v>
+        <v>35817</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>62403</v>
+        <v>62349</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.08615891369353768</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.06511808285354863</v>
+        <v>0.06441172618545606</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1122238900047663</v>
+        <v>0.1121255218707975</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>52</v>
@@ -9850,19 +9850,19 @@
         <v>33272</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>25041</v>
+        <v>25479</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>41065</v>
+        <v>43306</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.0575946640779604</v>
+        <v>0.05759466407796038</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04334630768225447</v>
+        <v>0.04410555207332604</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.07108552572821562</v>
+        <v>0.07496316281038595</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>98</v>
@@ -9871,19 +9871,19 @@
         <v>81182</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>65446</v>
+        <v>66602</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>96137</v>
+        <v>98129</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.07160431785250333</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05772545371450337</v>
+        <v>0.05874448574659061</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08479555487238781</v>
+        <v>0.08655263425728797</v>
       </c>
     </row>
     <row r="29">
@@ -9900,19 +9900,19 @@
         <v>129983</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>111164</v>
+        <v>111171</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>149432</v>
+        <v>149416</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2337559142961173</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.199912394183323</v>
+        <v>0.1999251333709165</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2687326329339356</v>
+        <v>0.268702960466485</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>186</v>
@@ -9921,19 +9921,19 @@
         <v>115647</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>100721</v>
+        <v>101980</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>131098</v>
+        <v>132548</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2001883400157018</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.174350938335291</v>
+        <v>0.1765296418687729</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2269339008539734</v>
+        <v>0.2294449196808589</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>321</v>
@@ -9942,19 +9942,19 @@
         <v>245630</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>223054</v>
+        <v>222018</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>273444</v>
+        <v>268438</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2166519299943938</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.196739098937707</v>
+        <v>0.1958255854809593</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2411850111029692</v>
+        <v>0.2367694536576342</v>
       </c>
     </row>
     <row r="30">
@@ -9971,19 +9971,19 @@
         <v>153569</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>134563</v>
+        <v>134068</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>174004</v>
+        <v>173089</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2761724227622219</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2419921576910059</v>
+        <v>0.2411026874756922</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3129224549745905</v>
+        <v>0.3112769113319707</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>301</v>
@@ -9992,19 +9992,19 @@
         <v>181223</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>165608</v>
+        <v>162978</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>201057</v>
+        <v>198204</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3137031356173545</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2866717116716738</v>
+        <v>0.2821189100921176</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3480356599581576</v>
+        <v>0.3430975596631611</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>480</v>
@@ -10013,19 +10013,19 @@
         <v>334792</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>308080</v>
+        <v>308215</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>360624</v>
+        <v>360210</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2952957802662285</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2717345928351955</v>
+        <v>0.27185361740074</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3180797751313313</v>
+        <v>0.3177146736820156</v>
       </c>
     </row>
     <row r="31">
@@ -10042,19 +10042,19 @@
         <v>112427</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>94703</v>
+        <v>94205</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>131484</v>
+        <v>131673</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2021836642455804</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.17031092803658</v>
+        <v>0.1694154245478025</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2364560963084857</v>
+        <v>0.2367952299603132</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>185</v>
@@ -10063,19 +10063,19 @@
         <v>108632</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>94630</v>
+        <v>94749</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>124458</v>
+        <v>124354</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1880445522063917</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1638066474357071</v>
+        <v>0.1640124853623077</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2154403240282987</v>
+        <v>0.2152606340792831</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>312</v>
@@ -10084,19 +10084,19 @@
         <v>221058</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>197629</v>
+        <v>199764</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>244550</v>
+        <v>243479</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1949792368914213</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1743136721663046</v>
+        <v>0.176197510579808</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2156998792235302</v>
+        <v>0.2147544967901866</v>
       </c>
     </row>
     <row r="32">
@@ -10113,19 +10113,19 @@
         <v>112174</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>94641</v>
+        <v>95084</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>132001</v>
+        <v>129464</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2017290850025429</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1701978572851534</v>
+        <v>0.1709945800698462</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2373846617119371</v>
+        <v>0.2328236403821533</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>230</v>
@@ -10134,19 +10134,19 @@
         <v>138917</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>124522</v>
+        <v>123070</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>156820</v>
+        <v>155629</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2404693080825915</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2155507593260469</v>
+        <v>0.2130377613111187</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2714603294295199</v>
+        <v>0.269398452813486</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>352</v>
@@ -10155,19 +10155,19 @@
         <v>251091</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>227915</v>
+        <v>227535</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>275522</v>
+        <v>275310</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2214687349954532</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2010266488063319</v>
+        <v>0.2006914469164636</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2430175062095961</v>
+        <v>0.2428303968755059</v>
       </c>
     </row>
     <row r="33">
@@ -10259,19 +10259,19 @@
         <v>17452</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>11454</v>
+        <v>11506</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>25961</v>
+        <v>25955</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.04531544610603237</v>
+        <v>0.04531544610603238</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.02974066927102372</v>
+        <v>0.02987651840764036</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.06740774541707736</v>
+        <v>0.06739290228606776</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>25</v>
@@ -10280,19 +10280,19 @@
         <v>13256</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>8677</v>
+        <v>8729</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>19418</v>
+        <v>18866</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.0311909994669004</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.02041800226402812</v>
+        <v>0.02053897377602626</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.04568938680585048</v>
+        <v>0.04439111746936771</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>48</v>
@@ -10301,19 +10301,19 @@
         <v>30708</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>22710</v>
+        <v>22614</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>40429</v>
+        <v>40090</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.03790576169091961</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.02803335170093509</v>
+        <v>0.02791395503368961</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.04990439714421137</v>
+        <v>0.04948645742867865</v>
       </c>
     </row>
     <row r="35">
@@ -10330,19 +10330,19 @@
         <v>72749</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>59609</v>
+        <v>60819</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>85227</v>
+        <v>86935</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.188894616476697</v>
+        <v>0.1888946164766971</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1547767147035204</v>
+        <v>0.1579164162406416</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2212939994268938</v>
+        <v>0.2257265946737718</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>157</v>
@@ -10351,19 +10351,19 @@
         <v>82897</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>71243</v>
+        <v>72067</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>95461</v>
+        <v>95315</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.195056089531411</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1676340746489765</v>
+        <v>0.1695736939613698</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2246188007227076</v>
+        <v>0.224275312623027</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>255</v>
@@ -10372,19 +10372,19 @@
         <v>155646</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>138187</v>
+        <v>138825</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>173221</v>
+        <v>175329</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1921269251139193</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1705756267312017</v>
+        <v>0.1713633653513003</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2138200294308802</v>
+        <v>0.21642236500244</v>
       </c>
     </row>
     <row r="36">
@@ -10401,19 +10401,19 @@
         <v>114683</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>100161</v>
+        <v>99014</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>129657</v>
+        <v>130740</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2977766321413937</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.260068589570767</v>
+        <v>0.2570898851212114</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3366562229791726</v>
+        <v>0.3394679851014694</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>265</v>
@@ -10422,19 +10422,19 @@
         <v>142888</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>129364</v>
+        <v>129870</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>157040</v>
+        <v>157053</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3362143400694427</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3043918728878904</v>
+        <v>0.305583524571997</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.36951469377145</v>
+        <v>0.3695456765189793</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>429</v>
@@ -10443,19 +10443,19 @@
         <v>257571</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>237373</v>
+        <v>235996</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>280228</v>
+        <v>278888</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3179410529264209</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.293008126868021</v>
+        <v>0.2913090663190702</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3459083631060197</v>
+        <v>0.344254029867247</v>
       </c>
     </row>
     <row r="37">
@@ -10472,19 +10472,19 @@
         <v>78776</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>66117</v>
+        <v>65970</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>92601</v>
+        <v>91516</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2045431029284047</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1716725337446012</v>
+        <v>0.1712907912762831</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2404390419417541</v>
+        <v>0.2376233144025614</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>152</v>
@@ -10493,19 +10493,19 @@
         <v>80366</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>68071</v>
+        <v>69507</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>91572</v>
+        <v>91447</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1891001517017714</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1601706659805851</v>
+        <v>0.1635487767462973</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2154675242742966</v>
+        <v>0.2151749466426317</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>265</v>
@@ -10514,19 +10514,19 @@
         <v>159142</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>142762</v>
+        <v>141657</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>177237</v>
+        <v>175965</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1964417310339257</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1762221318810785</v>
+        <v>0.1748586361811834</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2187774439281131</v>
+        <v>0.2172083454323768</v>
       </c>
     </row>
     <row r="38">
@@ -10543,19 +10543,19 @@
         <v>101471</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>88365</v>
+        <v>85926</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>116673</v>
+        <v>116779</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.2634702023474722</v>
+        <v>0.2634702023474723</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2294408593007539</v>
+        <v>0.2231075992135293</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3029420817369304</v>
+        <v>0.3032172529771818</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>203</v>
@@ -10564,19 +10564,19 @@
         <v>105584</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>92956</v>
+        <v>92639</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>118366</v>
+        <v>118978</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2484384192304745</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2187243251320394</v>
+        <v>0.2179797539379708</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2785145987353423</v>
+        <v>0.279955287155249</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>347</v>
@@ -10585,19 +10585,19 @@
         <v>207055</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>189153</v>
+        <v>187372</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>225894</v>
+        <v>225501</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2555845292348144</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2334864265741245</v>
+        <v>0.2312878264221414</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2788392079918997</v>
+        <v>0.278353956462676</v>
       </c>
     </row>
     <row r="39">
@@ -10689,19 +10689,19 @@
         <v>8971</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>4749</v>
+        <v>4951</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>14833</v>
+        <v>15508</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.02935657558461929</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.0155406296565047</v>
+        <v>0.01620194547723423</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.04853772477625901</v>
+        <v>0.05074792540162364</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>27</v>
@@ -10710,19 +10710,19 @@
         <v>15771</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>10753</v>
+        <v>10911</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>23166</v>
+        <v>22919</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.03599735767150124</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.0245427528205209</v>
+        <v>0.02490464965832026</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.05287448636589125</v>
+        <v>0.05231255482836542</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>39</v>
@@ -10731,19 +10731,19 @@
         <v>24742</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>17211</v>
+        <v>18067</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>33792</v>
+        <v>34910</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.03326868240153069</v>
+        <v>0.03326868240153068</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.02314232483809167</v>
+        <v>0.02429337582967031</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.04543709801883301</v>
+        <v>0.04694042394142239</v>
       </c>
     </row>
     <row r="41">
@@ -10760,19 +10760,19 @@
         <v>47043</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>37766</v>
+        <v>37476</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>59147</v>
+        <v>58957</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1539404713712732</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1235843764159135</v>
+        <v>0.1226338289754855</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1935497451153213</v>
+        <v>0.1929263433259592</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>117</v>
@@ -10781,19 +10781,19 @@
         <v>62525</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>51105</v>
+        <v>51983</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>73879</v>
+        <v>73685</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.142709983708202</v>
+        <v>0.1427099837082019</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1166441263378542</v>
+        <v>0.1186482209214584</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1686256599859318</v>
+        <v>0.1681810822529009</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>182</v>
@@ -10802,19 +10802,19 @@
         <v>109568</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>94731</v>
+        <v>94364</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>126154</v>
+        <v>125522</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1473245537324866</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1273750099549944</v>
+        <v>0.1268822561697794</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1696258248593516</v>
+        <v>0.1687770639253861</v>
       </c>
     </row>
     <row r="42">
@@ -10831,19 +10831,19 @@
         <v>89858</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>75387</v>
+        <v>76083</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>102912</v>
+        <v>104251</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2940462800660555</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2466910772913282</v>
+        <v>0.2489683958337873</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3367643033425082</v>
+        <v>0.3411454623690192</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>229</v>
@@ -10852,19 +10852,19 @@
         <v>122610</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>109177</v>
+        <v>108218</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>136582</v>
+        <v>135963</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2798500200269915</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2491914305400675</v>
+        <v>0.2470028018890254</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3117409268662318</v>
+        <v>0.3103285111425358</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>359</v>
@@ -10873,19 +10873,19 @@
         <v>212467</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>192912</v>
+        <v>194123</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>231485</v>
+        <v>234303</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.2856832160553909</v>
+        <v>0.2856832160553908</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2593888712890726</v>
+        <v>0.2610168927414624</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3112546225046142</v>
+        <v>0.3150428002901237</v>
       </c>
     </row>
     <row r="43">
@@ -10902,19 +10902,19 @@
         <v>87161</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>75065</v>
+        <v>74615</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>100155</v>
+        <v>100460</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.2852227012214384</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2456394346219036</v>
+        <v>0.2441654714845801</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.3277413912454627</v>
+        <v>0.3287389264258422</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>222</v>
@@ -10923,19 +10923,19 @@
         <v>112655</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>100125</v>
+        <v>100361</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>125558</v>
+        <v>126455</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.2571290877610932</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.2285300730336265</v>
+        <v>0.2290689186667318</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2865806587990497</v>
+        <v>0.2886270751729543</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>356</v>
@@ -10944,19 +10944,19 @@
         <v>199816</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>181745</v>
+        <v>183626</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>218099</v>
+        <v>220109</v>
       </c>
       <c r="U43" s="6" t="n">
-        <v>0.2686726600829113</v>
+        <v>0.2686726600829112</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2443740103529952</v>
+        <v>0.2469036013432586</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2932548698644558</v>
+        <v>0.2959586738634332</v>
       </c>
     </row>
     <row r="44">
@@ -10973,19 +10973,19 @@
         <v>72558</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>61545</v>
+        <v>60917</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>85787</v>
+        <v>86503</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2374339717566138</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.20139677661351</v>
+        <v>0.199340670350751</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2807246774208889</v>
+        <v>0.2830690994558951</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>241</v>
@@ -10994,19 +10994,19 @@
         <v>124565</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>111341</v>
+        <v>110866</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>138839</v>
+        <v>138645</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.2843135508322122</v>
+        <v>0.284313550832212</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2541289788539013</v>
+        <v>0.2530448532786052</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.3168936635538741</v>
+        <v>0.3164497389504928</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>352</v>
@@ -11015,19 +11015,19 @@
         <v>197123</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>180088</v>
+        <v>180406</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>215383</v>
+        <v>217761</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2650508877276807</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2421454733081312</v>
+        <v>0.2425735421553722</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2896039983301827</v>
+        <v>0.2928010124323346</v>
       </c>
     </row>
     <row r="45">
@@ -11119,19 +11119,19 @@
         <v>242233</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>210135</v>
+        <v>213332</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>276349</v>
+        <v>277987</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.08680493196751203</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.07530229303205412</v>
+        <v>0.07644809361953375</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.09903056569890106</v>
+        <v>0.09961748892435555</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>295</v>
@@ -11140,19 +11140,19 @@
         <v>226643</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>202473</v>
+        <v>199483</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>253064</v>
+        <v>254931</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.07044715712168324</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.06293440639632399</v>
+        <v>0.06200505282731188</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.07865934258558627</v>
+        <v>0.0792396861614602</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>505</v>
@@ -11161,19 +11161,19 @@
         <v>468877</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>429371</v>
+        <v>429138</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>509553</v>
+        <v>510750</v>
       </c>
       <c r="U46" s="6" t="n">
-        <v>0.07804518694259177</v>
+        <v>0.07804518694259176</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.07146935936263882</v>
+        <v>0.07143063843454638</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.08481587569776988</v>
+        <v>0.08501502158066795</v>
       </c>
     </row>
     <row r="47">
@@ -11190,19 +11190,19 @@
         <v>739034</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>684903</v>
+        <v>690529</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>791441</v>
+        <v>791546</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>0.2648349373831534</v>
+        <v>0.2648349373831535</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.2454370709840228</v>
+        <v>0.2474529780756779</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2836149403981592</v>
+        <v>0.2836526021019967</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>1081</v>
@@ -11211,19 +11211,19 @@
         <v>769688</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>728633</v>
+        <v>728613</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>810795</v>
+        <v>812865</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.2392406640400292</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.226479787329441</v>
+        <v>0.2264733528755694</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2520177607849556</v>
+        <v>0.2526614167352675</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>1766</v>
@@ -11232,19 +11232,19 @@
         <v>1508722</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1442065</v>
+        <v>1441898</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>1576277</v>
+        <v>1575411</v>
       </c>
       <c r="U47" s="6" t="n">
-        <v>0.2511289589908018</v>
+        <v>0.2511289589908019</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.240033722409706</v>
+        <v>0.2400059235815792</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.262373621221348</v>
+        <v>0.262229483569026</v>
       </c>
     </row>
     <row r="48">
@@ -11261,19 +11261,19 @@
         <v>825091</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>774193</v>
+        <v>777801</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>875072</v>
+        <v>880592</v>
       </c>
       <c r="G48" s="6" t="n">
-        <v>0.2956736768813656</v>
+        <v>0.2956736768813655</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.2774340673756789</v>
+        <v>0.2787271359614188</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.3135846432191802</v>
+        <v>0.3155625245876201</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>1454</v>
@@ -11282,19 +11282,19 @@
         <v>956906</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>911513</v>
+        <v>913626</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>1001543</v>
+        <v>1002023</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2974333923615814</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.2833239735860295</v>
+        <v>0.2839805845396951</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.3113076594713462</v>
+        <v>0.3114569503633293</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>2318</v>
@@ -11303,19 +11303,19 @@
         <v>1781997</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>1719507</v>
+        <v>1712637</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>1849247</v>
+        <v>1853248</v>
       </c>
       <c r="U48" s="6" t="n">
-        <v>0.2966160213669926</v>
+        <v>0.2966160213669927</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.2862145027610347</v>
+        <v>0.2850709104680491</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.30780980005964</v>
+        <v>0.3084757326098616</v>
       </c>
     </row>
     <row r="49">
@@ -11332,19 +11332,19 @@
         <v>475183</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>438172</v>
+        <v>434663</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>519355</v>
+        <v>516171</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.1702830987873645</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1570200840084215</v>
+        <v>0.1557625908778777</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.1861123789738623</v>
+        <v>0.1849713449569849</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>866</v>
@@ -11353,19 +11353,19 @@
         <v>534479</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>500201</v>
+        <v>501019</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>571720</v>
+        <v>566704</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.1661311388107045</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.1554764554712248</v>
+        <v>0.1557308245089599</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.1777066995767662</v>
+        <v>0.1761474159303342</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>1400</v>
@@ -11374,19 +11374,19 @@
         <v>1009662</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>958405</v>
+        <v>957472</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>1070634</v>
+        <v>1065860</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.1680596844726425</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.1595279261019007</v>
+        <v>0.1593726102379326</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.1782084945429008</v>
+        <v>0.1774138951679605</v>
       </c>
     </row>
     <row r="50">
@@ -11403,19 +11403,19 @@
         <v>509005</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>471519</v>
+        <v>469295</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>548033</v>
+        <v>548166</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.1824033549806044</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1689699973658788</v>
+        <v>0.1681733179957955</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1963892086505813</v>
+        <v>0.1964367358321203</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>1127</v>
@@ -11424,19 +11424,19 @@
         <v>729495</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>686993</v>
+        <v>688554</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>769805</v>
+        <v>773033</v>
       </c>
       <c r="N50" s="6" t="n">
-        <v>0.2267476476660017</v>
+        <v>0.2267476476660018</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.2135367793125043</v>
+        <v>0.2140219504076257</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.2392771298878252</v>
+        <v>0.2402804959921553</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>1700</v>
@@ -11445,19 +11445,19 @@
         <v>1238500</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>1180099</v>
+        <v>1180462</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>1290827</v>
+        <v>1297626</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.2061501482269714</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.196429191240225</v>
+        <v>0.1964896666388338</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.2148599962342044</v>
+        <v>0.2159917198221621</v>
       </c>
     </row>
     <row r="51">
